--- a/Electric Vehicle Range.xlsx
+++ b/Electric Vehicle Range.xlsx
@@ -18,11 +18,11 @@
     <sheet name="NEFZ - NEFZ Zusammenfassung" sheetId="10" r:id="rId13"/>
     <sheet name="NEFZ - NEFZ vom 15.2.2012 Quell" sheetId="11" r:id="rId14"/>
     <sheet name="NEFZ - Drawings" sheetId="12" r:id="rId15"/>
-    <sheet name="NEFZ-2 - Konstanten" sheetId="13" r:id="rId16"/>
-    <sheet name="NEFZ-2 - Startwerte" sheetId="14" r:id="rId17"/>
-    <sheet name="NEFZ-2 - NEFZ Berechnung Zusamm" sheetId="15" r:id="rId18"/>
-    <sheet name="NEFZ-2 - NEFZ vom 15.2.2012 Que" sheetId="16" r:id="rId19"/>
-    <sheet name="NEFZ-2 - Drawings" sheetId="17" r:id="rId20"/>
+    <sheet name="NEFZ Comparison - Startwerte" sheetId="13" r:id="rId16"/>
+    <sheet name="NEFZ Comparison - NEFZ Berechnu" sheetId="14" r:id="rId17"/>
+    <sheet name="NEFZ Comparison - Konstanten" sheetId="15" r:id="rId18"/>
+    <sheet name="NEFZ Comparison - NEFZ vom 15.2" sheetId="16" r:id="rId19"/>
+    <sheet name="NEFZ Comparison - Drawings" sheetId="17" r:id="rId20"/>
     <sheet name="User reported ranges" sheetId="18" r:id="rId21"/>
     <sheet name="Old calculations" sheetId="19" r:id="rId22"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -404,19 +404,13 @@
     <t>NEFZ - Drawings</t>
   </si>
   <si>
-    <t>NEFZ-2</t>
-  </si>
-  <si>
-    <t>Konstanten</t>
-  </si>
-  <si>
-    <t>NEFZ-2 - Konstanten</t>
+    <t>NEFZ Comparison</t>
   </si>
   <si>
     <t>Startwerte</t>
   </si>
   <si>
-    <t>NEFZ-2 - Startwerte</t>
+    <t>NEFZ Comparison - Startwerte</t>
   </si>
   <si>
     <t>Werte zum Einsetzen:</t>
@@ -467,7 +461,16 @@
     <t>NEFZ Berechnung Zusammenfassung</t>
   </si>
   <si>
-    <t>NEFZ-2 - NEFZ Berechnung Zusamm</t>
+    <t>NEFZ Comparison - NEFZ Berechnu</t>
+  </si>
+  <si>
+    <t>kinetische Energie in Wh</t>
+  </si>
+  <si>
+    <t>Rollwiderstandsenergie in Wh</t>
+  </si>
+  <si>
+    <t>Energie cW in Wh</t>
   </si>
   <si>
     <t>NEFZ Verbrauch kWh/100km</t>
@@ -482,10 +485,25 @@
     <t>cw * Stirnfläche</t>
   </si>
   <si>
-    <t>NEFZ-2 - NEFZ vom 15.2.2012 Que</t>
+    <t>Konstanten</t>
   </si>
   <si>
-    <t>NEFZ-2 - Drawings</t>
+    <t>NEFZ Comparison - Konstanten</t>
+  </si>
+  <si>
+    <t>NEFZ Comparison - NEFZ vom 15.2</t>
+  </si>
+  <si>
+    <t>delta kin. Energie Auto in Wh</t>
+  </si>
+  <si>
+    <t>Energie Rollwiderstand in Wh</t>
+  </si>
+  <si>
+    <t>Energie Air in Wh</t>
+  </si>
+  <si>
+    <t>NEFZ Comparison - Drawings</t>
   </si>
   <si>
     <t>User reported ranges</t>
@@ -1244,7 +1262,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1528,9 +1546,6 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1555,13 +1570,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="62" fontId="0" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="62" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="59" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="63" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1574,6 +1595,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="60" fontId="0" fillId="10" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -14733,7 +14757,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'NEFZ-2 - NEFZ vom 15.2.2012 Que'!$H$3:$H$28</c:f>
+              <c:f>'NEFZ Comparison - NEFZ vom 15.2'!$H$3:$H$28</c:f>
               <c:numCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
@@ -14819,7 +14843,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'NEFZ-2 - NEFZ vom 15.2.2012 Que'!$F$3:$F$28</c:f>
+              <c:f>'NEFZ Comparison - NEFZ vom 15.2'!$F$3:$F$28</c:f>
               <c:numCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="1">
@@ -15185,7 +15209,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'NEFZ-2 - NEFZ vom 15.2.2012 Que'!$H$32:$H$52</c:f>
+              <c:f>'NEFZ Comparison - NEFZ vom 15.2'!$H$31:$H$51</c:f>
               <c:numCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -15256,7 +15280,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'NEFZ-2 - NEFZ vom 15.2.2012 Que'!$D$32:$D$52</c:f>
+              <c:f>'NEFZ Comparison - NEFZ vom 15.2'!$D$31:$D$51</c:f>
               <c:numCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -16297,15 +16321,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>476636</xdr:colOff>
+      <xdr:colOff>476637</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95885</xdr:rowOff>
+      <xdr:rowOff>95884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>563086</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>121285</xdr:rowOff>
+      <xdr:rowOff>121284</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16313,8 +16337,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21050636" y="260984"/>
-        <a:ext cx="5420451" cy="3657601"/>
+        <a:off x="21050637" y="260984"/>
+        <a:ext cx="5420450" cy="3657601"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16327,9 +16351,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>406005</xdr:colOff>
+      <xdr:colOff>406006</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>62864</xdr:rowOff>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
@@ -16343,8 +16367,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="20980005" y="4520564"/>
-        <a:ext cx="5491082" cy="3657601"/>
+        <a:off x="20980006" y="4520565"/>
+        <a:ext cx="5491081" cy="3657601"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16361,16 +16385,16 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>707602</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>404641</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>104211</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>563249</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16378,8 +16402,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15185602" y="0"/>
-        <a:ext cx="5492610" cy="3657601"/>
+        <a:off x="11834641" y="73025"/>
+        <a:ext cx="5492609" cy="3657601"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16391,16 +16415,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>31569</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>21508</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>404641</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>97708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>260808</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>46908</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>633880</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123108</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16408,7 +16432,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12985569" y="4314108"/>
+        <a:off x="11834641" y="4225208"/>
         <a:ext cx="5563240" cy="3657601"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -17736,19 +17760,19 @@
     <row r="24">
       <c r="B24" s="4"/>
       <c r="C24" t="s" s="4">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="4"/>
       <c r="C25" t="s" s="4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s" s="5">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26">
@@ -17757,7 +17781,7 @@
         <v>98</v>
       </c>
       <c r="D26" t="s" s="5">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27">
@@ -17766,12 +17790,12 @@
         <v>81</v>
       </c>
       <c r="D27" t="s" s="5">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s" s="3">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -17782,12 +17806,12 @@
         <v>5</v>
       </c>
       <c r="D29" t="s" s="5">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s" s="3">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -17798,7 +17822,7 @@
         <v>5</v>
       </c>
       <c r="D31" t="s" s="5">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -17817,11 +17841,11 @@
     <hyperlink ref="D19" location="'NEFZ - NEFZ Zusammenfassung'!R2C1" tooltip="" display="NEFZ - NEFZ Zusammenfassung"/>
     <hyperlink ref="D20" location="'NEFZ - NEFZ vom 15.2.2012 Quell'!R2C1" tooltip="" display="NEFZ - NEFZ vom 15.2.2012 Quell"/>
     <hyperlink ref="D21" location="'NEFZ - Drawings'!R1C1" tooltip="" display="NEFZ - Drawings"/>
-    <hyperlink ref="D23" location="'NEFZ-2 - Konstanten'!R2C1" tooltip="" display="NEFZ-2 - Konstanten"/>
-    <hyperlink ref="D24" location="'NEFZ-2 - Startwerte'!R2C1" tooltip="" display="NEFZ-2 - Startwerte"/>
-    <hyperlink ref="D25" location="'NEFZ-2 - NEFZ Berechnung Zusamm'!R2C1" tooltip="" display="NEFZ-2 - NEFZ Berechnung Zusamm"/>
-    <hyperlink ref="D26" location="'NEFZ-2 - NEFZ vom 15.2.2012 Que'!R2C1" tooltip="" display="NEFZ-2 - NEFZ vom 15.2.2012 Que"/>
-    <hyperlink ref="D27" location="'NEFZ-2 - Drawings'!R1C1" tooltip="" display="NEFZ-2 - Drawings"/>
+    <hyperlink ref="D23" location="'NEFZ Comparison - Startwerte'!R2C1" tooltip="" display="NEFZ Comparison - Startwerte"/>
+    <hyperlink ref="D24" location="'NEFZ Comparison - NEFZ Berechnu'!R2C1" tooltip="" display="NEFZ Comparison - NEFZ Berechnu"/>
+    <hyperlink ref="D25" location="'NEFZ Comparison - Konstanten'!R2C1" tooltip="" display="NEFZ Comparison - Konstanten"/>
+    <hyperlink ref="D26" location="'NEFZ Comparison - NEFZ vom 15.2'!R2C1" tooltip="" display="NEFZ Comparison - NEFZ vom 15.2"/>
+    <hyperlink ref="D27" location="'NEFZ Comparison - Drawings'!R1C1" tooltip="" display="NEFZ Comparison - Drawings"/>
     <hyperlink ref="D29" location="'User reported ranges'!R1C2" tooltip="" display="User reported ranges"/>
     <hyperlink ref="D31" location="'Old calculations'!R2C1" tooltip="" display="Old calculations"/>
   </hyperlinks>
@@ -21403,7 +21427,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -21411,9 +21435,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="96" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="96" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="96" customWidth="1"/>
+    <col min="1" max="1" width="30.6094" style="96" customWidth="1"/>
+    <col min="2" max="2" width="19.3516" style="96" customWidth="1"/>
+    <col min="3" max="3" width="15.1875" style="96" customWidth="1"/>
+    <col min="4" max="4" width="16.1172" style="96" customWidth="1"/>
+    <col min="5" max="5" width="15.1875" style="96" customWidth="1"/>
+    <col min="6" max="6" width="15.1875" style="96" customWidth="1"/>
+    <col min="7" max="7" width="13.9688" style="96" customWidth="1"/>
+    <col min="8" max="8" width="13.9688" style="96" customWidth="1"/>
+    <col min="9" max="9" width="13.9688" style="96" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="96" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
@@ -21421,30 +21452,247 @@
         <v>126</v>
       </c>
       <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+    <row r="2" ht="19.2" customHeight="1">
+      <c r="A2" s="97"/>
+      <c r="B2" t="s" s="98">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s" s="98">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s" s="98">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s" s="98">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s" s="98">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s" s="98">
+        <v>133</v>
+      </c>
+      <c r="H2" t="s" s="98">
+        <v>134</v>
+      </c>
+      <c r="I2" t="s" s="98">
+        <v>135</v>
+      </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1.2</v>
+    <row r="3" ht="19.2" customHeight="1">
+      <c r="A3" t="s" s="99">
+        <v>136</v>
+      </c>
+      <c r="B3" s="100">
+        <v>1320</v>
+      </c>
+      <c r="C3" s="101">
+        <v>2090</v>
+      </c>
+      <c r="D3" s="101">
+        <v>2090</v>
+      </c>
+      <c r="E3" s="101">
+        <v>1520</v>
+      </c>
+      <c r="F3" s="101">
+        <v>1320</v>
+      </c>
+      <c r="G3" s="101">
+        <v>1270</v>
+      </c>
+      <c r="H3" s="101">
+        <v>1605</v>
+      </c>
+      <c r="I3" s="101">
+        <v>1503</v>
       </c>
     </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="B4" s="14">
-        <v>9.81</v>
+    <row r="4" ht="19" customHeight="1">
+      <c r="A4" t="s" s="102">
+        <v>137</v>
+      </c>
+      <c r="B4" s="103">
+        <v>0.29</v>
+      </c>
+      <c r="C4" s="104">
+        <v>0.24</v>
+      </c>
+      <c r="D4" s="104">
+        <v>0.24</v>
+      </c>
+      <c r="E4" s="104">
+        <v>0.28</v>
+      </c>
+      <c r="F4" s="104">
+        <v>0.29</v>
+      </c>
+      <c r="G4" s="104">
+        <v>0.29</v>
+      </c>
+      <c r="H4" s="104">
+        <v>0.28</v>
+      </c>
+      <c r="I4" s="104">
+        <v>0.329</v>
+      </c>
+    </row>
+    <row r="5" ht="19" customHeight="1">
+      <c r="A5" t="s" s="102">
+        <v>138</v>
+      </c>
+      <c r="B5" s="103">
+        <v>2.38</v>
+      </c>
+      <c r="C5" s="104">
+        <v>2.34</v>
+      </c>
+      <c r="D5" s="104">
+        <v>2.34</v>
+      </c>
+      <c r="E5" s="104">
+        <v>2.3</v>
+      </c>
+      <c r="F5" s="104">
+        <v>2.38</v>
+      </c>
+      <c r="G5" s="104">
+        <v>2.38</v>
+      </c>
+      <c r="H5" s="104">
+        <v>2.19</v>
+      </c>
+      <c r="I5" s="104">
+        <v>2.184</v>
+      </c>
+    </row>
+    <row r="6" ht="19" customHeight="1">
+      <c r="A6" t="s" s="102">
+        <v>139</v>
+      </c>
+      <c r="B6" s="103">
+        <v>0.008</v>
+      </c>
+      <c r="C6" s="104">
+        <v>0.012</v>
+      </c>
+      <c r="D6" s="104">
+        <v>0.012</v>
+      </c>
+      <c r="E6" s="104">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="104">
+        <v>0.008</v>
+      </c>
+      <c r="G6" s="104">
+        <v>0.008</v>
+      </c>
+      <c r="H6" s="104">
+        <v>0.008</v>
+      </c>
+      <c r="I6" s="104">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="7" ht="19" customHeight="1">
+      <c r="A7" t="s" s="102">
+        <v>140</v>
+      </c>
+      <c r="B7" s="103">
+        <v>33.2</v>
+      </c>
+      <c r="C7" s="104">
+        <v>70</v>
+      </c>
+      <c r="D7" s="104">
+        <v>90</v>
+      </c>
+      <c r="E7" s="104">
+        <v>30</v>
+      </c>
+      <c r="F7" s="104">
+        <v>33.2</v>
+      </c>
+      <c r="G7" s="104">
+        <v>21.7</v>
+      </c>
+      <c r="H7" s="104">
+        <v>35.8</v>
+      </c>
+      <c r="I7" s="104">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="8" ht="19" customHeight="1">
+      <c r="A8" t="s" s="102">
+        <v>141</v>
+      </c>
+      <c r="B8" s="103">
+        <v>29.7</v>
+      </c>
+      <c r="C8" s="104">
+        <v>63</v>
+      </c>
+      <c r="D8" s="104">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="E8" s="104">
+        <v>27</v>
+      </c>
+      <c r="F8" s="104">
+        <v>29.7</v>
+      </c>
+      <c r="G8" s="104">
+        <v>19.9</v>
+      </c>
+      <c r="H8" s="104">
+        <v>32.2</v>
+      </c>
+      <c r="I8" s="104">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="19" customHeight="1">
+      <c r="A9" t="s" s="102">
+        <v>142</v>
+      </c>
+      <c r="B9" s="103">
+        <v>312</v>
+      </c>
+      <c r="C9" s="104">
+        <v>442</v>
+      </c>
+      <c r="D9" s="104">
+        <v>557</v>
+      </c>
+      <c r="E9" s="104">
+        <v>215</v>
+      </c>
+      <c r="F9" s="104">
+        <v>312</v>
+      </c>
+      <c r="G9" s="104">
+        <v>190</v>
+      </c>
+      <c r="H9" s="104">
+        <v>300</v>
+      </c>
+      <c r="I9" s="104">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -21459,29 +21707,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30.6094" style="97" customWidth="1"/>
-    <col min="2" max="2" width="19.3516" style="97" customWidth="1"/>
-    <col min="3" max="3" width="15.1875" style="97" customWidth="1"/>
-    <col min="4" max="4" width="16.1172" style="97" customWidth="1"/>
-    <col min="5" max="5" width="15.1875" style="97" customWidth="1"/>
-    <col min="6" max="6" width="15.1875" style="97" customWidth="1"/>
-    <col min="7" max="7" width="13.9688" style="97" customWidth="1"/>
-    <col min="8" max="8" width="13.9688" style="97" customWidth="1"/>
-    <col min="9" max="9" width="13.9688" style="97" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="97" customWidth="1"/>
+    <col min="1" max="1" width="20.3438" style="105" customWidth="1"/>
+    <col min="2" max="2" width="16.6719" style="105" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="105" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="105" customWidth="1"/>
+    <col min="5" max="5" width="13.1719" style="105" customWidth="1"/>
+    <col min="6" max="6" width="12.7266" style="105" customWidth="1"/>
+    <col min="7" max="7" width="12.9531" style="105" customWidth="1"/>
+    <col min="8" max="8" width="13.2266" style="105" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
       <c r="A1" t="s" s="25">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -21490,241 +21737,324 @@
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
     </row>
-    <row r="2" ht="19.2" customHeight="1">
-      <c r="A2" s="98"/>
-      <c r="B2" t="s" s="99">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s" s="99">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s" s="99">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s" s="99">
-        <v>133</v>
-      </c>
-      <c r="F2" t="s" s="99">
-        <v>134</v>
-      </c>
-      <c r="G2" t="s" s="99">
-        <v>135</v>
-      </c>
-      <c r="H2" t="s" s="99">
-        <v>136</v>
-      </c>
-      <c r="I2" t="s" s="99">
-        <v>137</v>
+    <row r="2" ht="44.55" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" t="s" s="7">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s" s="7">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s" s="7">
+        <v>148</v>
+      </c>
+      <c r="H2" t="s" s="7">
+        <v>149</v>
       </c>
     </row>
-    <row r="3" ht="19.2" customHeight="1">
-      <c r="A3" t="s" s="100">
-        <v>138</v>
-      </c>
-      <c r="B3" s="101">
-        <v>1320</v>
-      </c>
-      <c r="C3" s="102">
-        <v>2090</v>
-      </c>
-      <c r="D3" s="102">
-        <v>2090</v>
-      </c>
-      <c r="E3" s="102">
-        <v>1520</v>
-      </c>
-      <c r="F3" s="102">
-        <v>1320</v>
-      </c>
-      <c r="G3" s="102">
-        <v>1270</v>
-      </c>
-      <c r="H3" s="102">
-        <v>1605</v>
-      </c>
-      <c r="I3" s="102">
-        <v>1503</v>
-      </c>
+    <row r="3" ht="20.55" customHeight="1">
+      <c r="A3" t="s" s="77">
+        <v>95</v>
+      </c>
+      <c r="B3" s="106">
+        <f>SUMIF('NEFZ Comparison - NEFZ vom 15.2'!M4:M28,"&gt;0")</f>
+        <v>45.94650205761317</v>
+      </c>
+      <c r="C3" s="107">
+        <f>SUM('NEFZ Comparison - NEFZ vom 15.2'!N4:N28)</f>
+        <v>29.30356</v>
+      </c>
+      <c r="D3" s="32">
+        <f>SUM('NEFZ Comparison - NEFZ vom 15.2'!Q4:Q28)</f>
+        <v>12.37324332990397</v>
+      </c>
+      <c r="E3" s="32">
+        <f>SUM('NEFZ Comparison - NEFZ vom 15.2'!L4:L28)</f>
+        <v>1018.333333333333</v>
+      </c>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
     </row>
-    <row r="4" ht="19" customHeight="1">
-      <c r="A4" t="s" s="103">
-        <v>139</v>
-      </c>
-      <c r="B4" s="104">
-        <v>0.29</v>
-      </c>
-      <c r="C4" s="105">
-        <v>0.24</v>
-      </c>
-      <c r="D4" s="105">
-        <v>0.24</v>
-      </c>
-      <c r="E4" s="105">
-        <v>0.28</v>
-      </c>
-      <c r="F4" s="105">
-        <v>0.29</v>
-      </c>
-      <c r="G4" s="105">
-        <v>0.29</v>
-      </c>
-      <c r="H4" s="105">
-        <v>0.28</v>
-      </c>
-      <c r="I4" s="105">
-        <v>0.32</v>
-      </c>
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="A4" t="s" s="81">
+        <v>96</v>
+      </c>
+      <c r="B4" s="108">
+        <f>SUMIF('NEFZ Comparison - NEFZ vom 15.2'!M31:M51,"&gt;0")</f>
+        <v>118.1198559670782</v>
+      </c>
+      <c r="C4" s="109">
+        <f>SUM('NEFZ Comparison - NEFZ vom 15.2'!N31:N51)</f>
+        <v>200.1330833333333</v>
+      </c>
+      <c r="D4" s="33">
+        <f>SUM('NEFZ Comparison - NEFZ vom 15.2'!Q31:Q51)</f>
+        <v>422.2698278803012</v>
+      </c>
+      <c r="E4" s="33">
+        <f>SUM('NEFZ Comparison - NEFZ vom 15.2'!L31:L51)</f>
+        <v>6954.861111111110</v>
+      </c>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
-      <c r="A5" t="s" s="103">
-        <v>140</v>
-      </c>
-      <c r="B5" s="104">
-        <v>2.38</v>
-      </c>
-      <c r="C5" s="105">
-        <v>2.34</v>
-      </c>
-      <c r="D5" s="105">
-        <v>2.34</v>
-      </c>
-      <c r="E5" s="105">
-        <v>2.3</v>
-      </c>
-      <c r="F5" s="105">
-        <v>2.38</v>
-      </c>
-      <c r="G5" s="105">
-        <v>2.38</v>
-      </c>
-      <c r="H5" s="105">
-        <v>2.19</v>
-      </c>
-      <c r="I5" s="105">
-        <v>1.6</v>
-      </c>
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="A5" s="85"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
     </row>
-    <row r="6" ht="19" customHeight="1">
-      <c r="A6" t="s" s="103">
-        <v>141</v>
-      </c>
-      <c r="B6" s="106">
-        <v>0.008</v>
-      </c>
-      <c r="C6" s="107">
-        <v>0.012</v>
-      </c>
-      <c r="D6" s="107">
-        <v>0.012</v>
-      </c>
-      <c r="E6" s="105">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="107">
-        <v>0.008</v>
-      </c>
-      <c r="G6" s="107">
-        <v>0.008</v>
-      </c>
-      <c r="H6" s="107">
-        <v>0.008</v>
-      </c>
-      <c r="I6" s="107">
-        <v>0.008</v>
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="A6" t="s" s="81">
+        <v>97</v>
+      </c>
+      <c r="B6" s="108">
+        <f>(4*B3)+B4</f>
+        <v>301.9058641975308</v>
+      </c>
+      <c r="C6" s="109">
+        <f>(4*C3)+C4</f>
+        <v>317.3473233333333</v>
+      </c>
+      <c r="D6" s="33">
+        <f>(4*D3)+D4</f>
+        <v>471.7628011999171</v>
+      </c>
+      <c r="E6" s="33">
+        <f>(4*E3)+E4</f>
+        <v>11028.194444444443</v>
+      </c>
+      <c r="F6" s="110">
+        <v>1</v>
+      </c>
+      <c r="G6" s="111">
+        <f>(($B$6*(1-F6))+SUM($C$6:$D$6))/$E$6*100</f>
+        <v>7.155388205281166</v>
+      </c>
+      <c r="H6" s="112">
+        <f>G6/$B$8</f>
+        <v>0.7516771447972133</v>
       </c>
     </row>
-    <row r="7" ht="19" customHeight="1">
-      <c r="A7" t="s" s="103">
-        <v>142</v>
-      </c>
-      <c r="B7" s="106">
-        <v>33.2</v>
-      </c>
-      <c r="C7" s="107">
-        <v>70</v>
-      </c>
-      <c r="D7" s="107">
-        <v>90</v>
-      </c>
-      <c r="E7" s="105">
-        <v>30</v>
-      </c>
-      <c r="F7" s="107">
-        <v>33.2</v>
-      </c>
-      <c r="G7" s="107">
-        <v>21.7</v>
-      </c>
-      <c r="H7" s="107">
-        <v>35.8</v>
-      </c>
-      <c r="I7" s="107">
-        <v>24.4</v>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" s="85"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="110">
+        <f>F6-0.1</f>
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="111">
+        <f>(($B$6*(1-F7))+SUM($C$6:$D$6))/$E$6*100</f>
+        <v>7.429146403614002</v>
+      </c>
+      <c r="H7" s="112">
+        <f>G7/$B$8</f>
+        <v>0.7804355817937941</v>
       </c>
     </row>
-    <row r="8" ht="19" customHeight="1">
-      <c r="A8" t="s" s="103">
-        <v>143</v>
-      </c>
-      <c r="B8" s="106">
-        <v>29.7</v>
-      </c>
-      <c r="C8" s="107">
-        <v>63</v>
-      </c>
-      <c r="D8" s="107">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="E8" s="105">
-        <v>27</v>
-      </c>
-      <c r="F8" s="107">
-        <v>29.7</v>
-      </c>
-      <c r="G8" s="107">
-        <v>19.9</v>
-      </c>
-      <c r="H8" s="107">
-        <v>32.2</v>
-      </c>
-      <c r="I8" s="107">
-        <v>22</v>
+    <row r="8" ht="32.35" customHeight="1">
+      <c r="A8" t="s" s="81">
+        <v>150</v>
+      </c>
+      <c r="B8" s="113">
+        <f>100*'NEFZ Comparison - Startwerte'!B8/'NEFZ Comparison - Startwerte'!B9</f>
+        <v>9.51923076923077</v>
+      </c>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="110">
+        <f>F7-0.1</f>
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="111">
+        <f>(($B$6*(1-F8))+SUM($C$6:$D$6))/$E$6*100</f>
+        <v>7.702904601946837</v>
+      </c>
+      <c r="H8" s="112">
+        <f>G8/$B$8</f>
+        <v>0.8091940187903748</v>
       </c>
     </row>
-    <row r="9" ht="19" customHeight="1">
-      <c r="A9" t="s" s="103">
-        <v>144</v>
-      </c>
-      <c r="B9" s="106">
-        <v>312</v>
-      </c>
-      <c r="C9" s="107">
-        <v>442</v>
-      </c>
-      <c r="D9" s="107">
-        <v>557</v>
-      </c>
-      <c r="E9" s="105">
-        <v>215</v>
-      </c>
-      <c r="F9" s="107">
-        <v>312</v>
-      </c>
-      <c r="G9" s="107">
-        <v>190</v>
-      </c>
-      <c r="H9" s="107">
-        <v>300</v>
-      </c>
-      <c r="I9" s="107">
-        <v>210</v>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" t="s" s="81">
+        <v>151</v>
+      </c>
+      <c r="B9" s="113">
+        <f>'NEFZ Comparison - Startwerte'!B5*'NEFZ Comparison - Startwerte'!B4</f>
+        <v>0.6901999999999999</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="110">
+        <f>F8-0.1</f>
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="G9" s="111">
+        <f>(($B$6*(1-F9))+SUM($C$6:$D$6))/$E$6*100</f>
+        <v>7.976662800279674</v>
+      </c>
+      <c r="H9" s="112">
+        <f>G9/$B$8</f>
+        <v>0.8379524557869555</v>
+      </c>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" s="85"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="110">
+        <f>F9-0.1</f>
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="G10" s="111">
+        <f>(($B$6*(1-F10))+SUM($C$6:$D$6))/$E$6*100</f>
+        <v>8.250420998612512</v>
+      </c>
+      <c r="H10" s="112">
+        <f>G10/$B$8</f>
+        <v>0.8667108927835365</v>
+      </c>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" s="85"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="110">
+        <f>F10-0.1</f>
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="G11" s="111">
+        <f>(($B$6*(1-F11))+SUM($C$6:$D$6))/$E$6*100</f>
+        <v>8.524179196945347</v>
+      </c>
+      <c r="H11" s="112">
+        <f>G11/$B$8</f>
+        <v>0.8954693297801172</v>
+      </c>
+    </row>
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" s="85"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="110">
+        <f>F11-0.1</f>
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="G12" s="111">
+        <f>(($B$6*(1-F12))+SUM($C$6:$D$6))/$E$6*100</f>
+        <v>8.797937395278185</v>
+      </c>
+      <c r="H12" s="112">
+        <f>G12/$B$8</f>
+        <v>0.924227766776698</v>
+      </c>
+    </row>
+    <row r="13" ht="20.35" customHeight="1">
+      <c r="A13" s="85"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="110">
+        <f>F12-0.1</f>
+        <v>0.3000000000000002</v>
+      </c>
+      <c r="G13" s="111">
+        <f>(($B$6*(1-F13))+SUM($C$6:$D$6))/$E$6*100</f>
+        <v>9.071695593611022</v>
+      </c>
+      <c r="H13" s="112">
+        <f>G13/$B$8</f>
+        <v>0.9529862037732789</v>
+      </c>
+    </row>
+    <row r="14" ht="20.35" customHeight="1">
+      <c r="A14" s="85"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="110">
+        <f>F13-0.1</f>
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="G14" s="111">
+        <f>(($B$6*(1-F14))+SUM($C$6:$D$6))/$E$6*100</f>
+        <v>9.345453791943859</v>
+      </c>
+      <c r="H14" s="112">
+        <f>G14/$B$8</f>
+        <v>0.9817446407698599</v>
+      </c>
+    </row>
+    <row r="15" ht="20.35" customHeight="1">
+      <c r="A15" s="85"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="110">
+        <f>F14-0.1</f>
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="G15" s="111">
+        <f>(($B$6*(1-F15))+SUM($C$6:$D$6))/$E$6*100</f>
+        <v>9.619211990276693</v>
+      </c>
+      <c r="H15" s="112">
+        <f>G15/$B$8</f>
+        <v>1.01050307776644</v>
+      </c>
+    </row>
+    <row r="16" ht="20.35" customHeight="1">
+      <c r="A16" s="85"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="110">
+        <f>F15-0.1</f>
+        <v>1.387778780781446e-16</v>
+      </c>
+      <c r="G16" s="111">
+        <f>(($B$6*(1-F16))+SUM($C$6:$D$6))/$E$6*100</f>
+        <v>9.89297018860953</v>
+      </c>
+      <c r="H16" s="112">
+        <f>G16/$B$8</f>
+        <v>1.039261514763021</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -21739,354 +22069,48 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.3438" style="108" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="108" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="108" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="108" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="108" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="108" customWidth="1"/>
-    <col min="7" max="7" width="12.9531" style="108" customWidth="1"/>
-    <col min="8" max="8" width="13.2266" style="108" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="108" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="114" customWidth="1"/>
+    <col min="2" max="2" width="4.85156" style="114" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="114" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
       <c r="A1" t="s" s="25">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
     </row>
-    <row r="2" ht="44.55" customHeight="1">
+    <row r="2" ht="20.55" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" t="s" s="7">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s" s="7">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s" s="7">
-        <v>91</v>
-      </c>
-      <c r="F2" t="s" s="7">
-        <v>92</v>
-      </c>
-      <c r="G2" t="s" s="7">
-        <v>147</v>
-      </c>
-      <c r="H2" t="s" s="7">
-        <v>148</v>
-      </c>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="77">
-        <v>95</v>
-      </c>
-      <c r="B3" s="78">
-        <f>SUMIF('NEFZ-2 - NEFZ vom 15.2.2012 Que'!M4:M28,"&gt;0")</f>
-        <v>165407.4074074074</v>
-      </c>
-      <c r="C3" s="79">
-        <f>SUM('NEFZ-2 - NEFZ vom 15.2.2012 Que'!N4:N28)</f>
-        <v>105492.816</v>
-      </c>
-      <c r="D3" s="80">
-        <f>SUM('NEFZ-2 - NEFZ vom 15.2.2012 Que'!Q4:Q28)</f>
-        <v>44543.675987654315</v>
-      </c>
-      <c r="E3" s="80">
-        <f>SUM('NEFZ-2 - NEFZ vom 15.2.2012 Que'!L4:L28)</f>
-        <v>1018.333333333333</v>
-      </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
+      <c r="A3" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="81">
-        <v>96</v>
-      </c>
-      <c r="B4" s="82">
-        <f>SUMIF('NEFZ-2 - NEFZ vom 15.2.2012 Que'!M32:M52,"&gt;0")</f>
-        <v>425231.4814814815</v>
-      </c>
-      <c r="C4" s="83">
-        <f>SUM('NEFZ-2 - NEFZ vom 15.2.2012 Que'!N32:N52)</f>
-        <v>720479.0999999999</v>
-      </c>
-      <c r="D4" s="84">
-        <f>SUM('NEFZ-2 - NEFZ vom 15.2.2012 Que'!Q32:Q52)</f>
-        <v>1520171.380369084</v>
-      </c>
-      <c r="E4" s="84">
-        <f>SUM('NEFZ-2 - NEFZ vom 15.2.2012 Que'!L32:L52)</f>
-        <v>6954.861111111110</v>
-      </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="81">
-        <v>97</v>
-      </c>
-      <c r="B6" s="82">
-        <f>(4*B3)+B4</f>
-        <v>1086861.111111111</v>
-      </c>
-      <c r="C6" s="83">
-        <f>(4*C3)+C4</f>
-        <v>1142450.364</v>
-      </c>
-      <c r="D6" s="84">
-        <f>(4*D3)+D4</f>
-        <v>1698346.084319701</v>
-      </c>
-      <c r="E6" s="84">
-        <f>(4*E3)+E4</f>
-        <v>11028.194444444443</v>
-      </c>
-      <c r="F6" s="109">
-        <v>1</v>
-      </c>
-      <c r="G6" s="110">
-        <f>(($B$6*(1-F6))+SUM($C$6:$D$6))/$E$6/36</f>
-        <v>7.155388205281166</v>
-      </c>
-      <c r="H6" s="111">
-        <f>G6/$B$8</f>
-        <v>0.7516771447972133</v>
-      </c>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="109">
-        <f>F6-0.1</f>
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="110">
-        <f>(($B$6*(1-F7))+SUM($C$6:$D$6))/$E$6/36</f>
-        <v>7.429146403614002</v>
-      </c>
-      <c r="H7" s="111">
-        <f>G7/$B$8</f>
-        <v>0.7804355817937941</v>
-      </c>
-    </row>
-    <row r="8" ht="32.35" customHeight="1">
-      <c r="A8" t="s" s="81">
-        <v>149</v>
-      </c>
-      <c r="B8" s="112">
-        <f>100*'NEFZ-2 - Startwerte'!B8/'NEFZ-2 - Startwerte'!B9</f>
-        <v>9.51923076923077</v>
-      </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="109">
-        <f>F7-0.1</f>
-        <v>0.8</v>
-      </c>
-      <c r="G8" s="110">
-        <f>(($B$6*(1-F8))+SUM($C$6:$D$6))/$E$6/36</f>
-        <v>7.702904601946837</v>
-      </c>
-      <c r="H8" s="111">
-        <f>G8/$B$8</f>
-        <v>0.8091940187903748</v>
-      </c>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="81">
-        <v>150</v>
-      </c>
-      <c r="B9" s="112">
-        <f>'NEFZ-2 - Startwerte'!B5*'NEFZ-2 - Startwerte'!B4</f>
-        <v>0.6901999999999999</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="109">
-        <f>F8-0.1</f>
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="G9" s="110">
-        <f>(($B$6*(1-F9))+SUM($C$6:$D$6))/$E$6/36</f>
-        <v>7.976662800279676</v>
-      </c>
-      <c r="H9" s="111">
-        <f>G9/$B$8</f>
-        <v>0.8379524557869558</v>
-      </c>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="109">
-        <f>F9-0.1</f>
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="G10" s="110">
-        <f>(($B$6*(1-F10))+SUM($C$6:$D$6))/$E$6/36</f>
-        <v>8.250420998612512</v>
-      </c>
-      <c r="H10" s="111">
-        <f>G10/$B$8</f>
-        <v>0.8667108927835365</v>
-      </c>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="109">
-        <f>F10-0.1</f>
-        <v>0.5000000000000001</v>
-      </c>
-      <c r="G11" s="110">
-        <f>(($B$6*(1-F11))+SUM($C$6:$D$6))/$E$6/36</f>
-        <v>8.524179196945347</v>
-      </c>
-      <c r="H11" s="111">
-        <f>G11/$B$8</f>
-        <v>0.8954693297801172</v>
-      </c>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="85"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="109">
-        <f>F11-0.1</f>
-        <v>0.4000000000000001</v>
-      </c>
-      <c r="G12" s="110">
-        <f>(($B$6*(1-F12))+SUM($C$6:$D$6))/$E$6/36</f>
-        <v>8.797937395278185</v>
-      </c>
-      <c r="H12" s="111">
-        <f>G12/$B$8</f>
-        <v>0.924227766776698</v>
-      </c>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="85"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="109">
-        <f>F12-0.1</f>
-        <v>0.3000000000000002</v>
-      </c>
-      <c r="G13" s="110">
-        <f>(($B$6*(1-F13))+SUM($C$6:$D$6))/$E$6/36</f>
-        <v>9.071695593611022</v>
-      </c>
-      <c r="H13" s="111">
-        <f>G13/$B$8</f>
-        <v>0.9529862037732789</v>
-      </c>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="85"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="109">
-        <f>F13-0.1</f>
-        <v>0.2000000000000001</v>
-      </c>
-      <c r="G14" s="110">
-        <f>(($B$6*(1-F14))+SUM($C$6:$D$6))/$E$6/36</f>
-        <v>9.345453791943859</v>
-      </c>
-      <c r="H14" s="111">
-        <f>G14/$B$8</f>
-        <v>0.9817446407698599</v>
-      </c>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="85"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="109">
-        <f>F14-0.1</f>
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="G15" s="110">
-        <f>(($B$6*(1-F15))+SUM($C$6:$D$6))/$E$6/36</f>
-        <v>9.619211990276694</v>
-      </c>
-      <c r="H15" s="111">
-        <f>G15/$B$8</f>
-        <v>1.010503077766441</v>
-      </c>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="85"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="109">
-        <f>F15-0.1</f>
-        <v>1.387778780781446e-16</v>
-      </c>
-      <c r="G16" s="110">
-        <f>(($B$6*(1-F16))+SUM($C$6:$D$6))/$E$6/36</f>
-        <v>9.892970188609532</v>
-      </c>
-      <c r="H16" s="111">
-        <f>G16/$B$8</f>
-        <v>1.039261514763021</v>
+      <c r="A4" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B4" s="14">
+        <v>9.81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -22101,7 +22125,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:Q52"/>
+  <dimension ref="A2:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -22109,24 +22133,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.1172" style="113" customWidth="1"/>
-    <col min="2" max="2" width="14.6172" style="113" customWidth="1"/>
-    <col min="3" max="3" width="15.5234" style="113" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="113" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="113" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="113" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="113" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="113" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="113" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="113" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="113" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="113" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="113" customWidth="1"/>
-    <col min="14" max="14" width="16.3516" style="113" customWidth="1"/>
-    <col min="15" max="15" width="16.3516" style="113" customWidth="1"/>
-    <col min="16" max="16" width="16.3516" style="113" customWidth="1"/>
-    <col min="17" max="17" width="16.3516" style="113" customWidth="1"/>
-    <col min="18" max="256" width="16.3516" style="113" customWidth="1"/>
+    <col min="1" max="1" width="11.1172" style="115" customWidth="1"/>
+    <col min="2" max="2" width="21.6172" style="115" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="115" customWidth="1"/>
+    <col min="4" max="4" width="13" style="115" customWidth="1"/>
+    <col min="5" max="5" width="12.3516" style="115" customWidth="1"/>
+    <col min="6" max="6" width="12.3516" style="115" customWidth="1"/>
+    <col min="7" max="7" width="6.67188" style="115" customWidth="1"/>
+    <col min="8" max="8" width="12.6719" style="115" customWidth="1"/>
+    <col min="9" max="9" width="12.8516" style="115" customWidth="1"/>
+    <col min="10" max="10" width="13.2578" style="115" customWidth="1"/>
+    <col min="11" max="11" width="12.9375" style="115" customWidth="1"/>
+    <col min="12" max="12" width="9.35156" style="115" customWidth="1"/>
+    <col min="13" max="13" width="15.7266" style="115" customWidth="1"/>
+    <col min="14" max="14" width="15.8516" style="115" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="115" customWidth="1"/>
+    <col min="16" max="16" width="8.85156" style="115" customWidth="1"/>
+    <col min="17" max="17" width="15.1719" style="115" customWidth="1"/>
+    <col min="18" max="256" width="16.3516" style="115" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
@@ -22188,10 +22212,10 @@
         <v>111</v>
       </c>
       <c r="M2" t="s" s="7">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="N2" t="s" s="7">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="O2" t="s" s="7">
         <v>114</v>
@@ -22200,7 +22224,7 @@
         <v>115</v>
       </c>
       <c r="Q2" t="s" s="7">
-        <v>116</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" ht="20.55" customHeight="1">
@@ -22271,20 +22295,20 @@
         <v>0</v>
       </c>
       <c r="M4" s="95">
-        <f>0.5*((J4-I4)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
+        <f>(0.5*((J4-I4)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
         <v>0</v>
       </c>
       <c r="N4" s="95">
-        <f>L4*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
+        <f>L4*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
         <v>0</v>
       </c>
       <c r="O4" s="19"/>
       <c r="P4" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O4</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O4</f>
         <v>0</v>
       </c>
       <c r="Q4" s="95">
-        <f>P4*L4</f>
+        <f>P4*L4/3600</f>
         <v>0</v>
       </c>
     </row>
@@ -22334,27 +22358,27 @@
         <v>8.333333333333334</v>
       </c>
       <c r="M5" s="95">
-        <f>0.5*((J5-I5)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>11458.333333333336</v>
+        <f>(0.5*((J5-I5)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>3.182870370370371</v>
       </c>
       <c r="N5" s="95">
-        <f>L5*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>863.2800000000001</v>
+        <f>L5*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.2398</v>
       </c>
       <c r="O5" s="95">
         <f>((I5^3+J5^3)/2)/K5</f>
         <v>17.36111111111111</v>
       </c>
       <c r="P5" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O5</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O5</f>
         <v>7.189583333333333</v>
       </c>
       <c r="Q5" s="95">
-        <f>P5*L5</f>
-        <v>59.91319444444445</v>
+        <f>P5*L5/3600</f>
+        <v>0.01664255401234568</v>
       </c>
     </row>
-    <row r="6" ht="32.35" customHeight="1">
+    <row r="6" ht="20.35" customHeight="1">
       <c r="A6" s="73">
         <f>A5+1</f>
         <v>3</v>
@@ -22398,24 +22422,24 @@
         <v>33.33333333333334</v>
       </c>
       <c r="M6" s="95">
-        <f>0.5*((J6-I6)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
+        <f>(0.5*((J6-I6)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
         <v>0</v>
       </c>
       <c r="N6" s="95">
-        <f>L6*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>3453.12</v>
+        <f>L6*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.9592000000000001</v>
       </c>
       <c r="O6" s="95">
         <f>((I6^3+J6^3)/2)/K6</f>
         <v>17.36111111111111</v>
       </c>
       <c r="P6" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O6</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O6</f>
         <v>7.189583333333333</v>
       </c>
       <c r="Q6" s="95">
-        <f>P6*L6</f>
-        <v>239.6527777777778</v>
+        <f>P6*L6/3600</f>
+        <v>0.06657021604938272</v>
       </c>
     </row>
     <row r="7" ht="20.35" customHeight="1">
@@ -22464,27 +22488,27 @@
         <v>6.944444444444445</v>
       </c>
       <c r="M7" s="95">
-        <f>0.5*((J7-I7)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>1273.148148148149</v>
+        <f>(0.5*((J7-I7)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>0.3536522633744857</v>
       </c>
       <c r="N7" s="95">
-        <f>L7*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>719.4</v>
+        <f>L7*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.1998333333333333</v>
       </c>
       <c r="O7" s="95">
         <f>((I7^3+J7^3)/2)/K7</f>
         <v>13.50308641975309</v>
       </c>
       <c r="P7" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O7</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O7</f>
         <v>5.591898148148148</v>
       </c>
       <c r="Q7" s="95">
-        <f>P7*L7</f>
-        <v>38.83262602880659</v>
+        <f>P7*L7/3600</f>
+        <v>0.01078684056355739</v>
       </c>
     </row>
-    <row r="8" ht="32.35" customHeight="1">
+    <row r="8" ht="20.35" customHeight="1">
       <c r="A8" s="73">
         <f>A7+1</f>
         <v>5</v>
@@ -22530,24 +22554,24 @@
         <v>4.166666666666666</v>
       </c>
       <c r="M8" s="95">
-        <f>0.5*((J8-I8)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>5092.592592592592</v>
+        <f>(0.5*((J8-I8)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>1.414609053497942</v>
       </c>
       <c r="N8" s="95">
-        <f>L8*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>431.6399999999999</v>
+        <f>L8*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.1199</v>
       </c>
       <c r="O8" s="95">
         <f>((I8^3+J8^3)/2)/K8</f>
         <v>7.716049382716049</v>
       </c>
       <c r="P8" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O8</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O8</f>
         <v>3.19537037037037</v>
       </c>
       <c r="Q8" s="95">
-        <f>P8*L8</f>
-        <v>13.31404320987654</v>
+        <f>P8*L8/3600</f>
+        <v>0.003698345336076816</v>
       </c>
     </row>
     <row r="9" ht="20.35" customHeight="1">
@@ -22594,20 +22618,20 @@
         <v>0</v>
       </c>
       <c r="M9" s="95">
-        <f>0.5*((J9-I9)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
+        <f>(0.5*((J9-I9)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
         <v>0</v>
       </c>
       <c r="N9" s="95">
-        <f>L9*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
+        <f>L9*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
         <v>0</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O9</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O9</f>
         <v>0</v>
       </c>
       <c r="Q9" s="95">
-        <f>P9*L9</f>
+        <f>P9*L9/3600</f>
         <v>0</v>
       </c>
     </row>
@@ -22657,24 +22681,24 @@
         <v>10.41666666666667</v>
       </c>
       <c r="M10" s="95">
-        <f>0.5*((J10-I10)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>11458.333333333336</v>
+        <f>(0.5*((J10-I10)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>3.182870370370371</v>
       </c>
       <c r="N10" s="95">
-        <f>L10*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>1079.1</v>
+        <f>L10*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.29975</v>
       </c>
       <c r="O10" s="95">
         <f>((I10^3+J10^3)/2)/K10</f>
         <v>17.36111111111111</v>
       </c>
       <c r="P10" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O10</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O10</f>
         <v>7.189583333333333</v>
       </c>
       <c r="Q10" s="95">
-        <f>P10*L10</f>
-        <v>74.89149305555556</v>
+        <f>P10*L10/3600</f>
+        <v>0.0208031925154321</v>
       </c>
     </row>
     <row r="11" ht="20.35" customHeight="1">
@@ -22721,24 +22745,24 @@
         <v>8.333333333333334</v>
       </c>
       <c r="M11" s="95">
-        <f>0.5*((J11-I11)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
+        <f>(0.5*((J11-I11)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
         <v>0</v>
       </c>
       <c r="N11" s="95">
-        <f>L11*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>863.2800000000001</v>
+        <f>L11*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.2398</v>
       </c>
       <c r="O11" s="95">
         <f>((I11^3+J11^3)/2)/K11</f>
         <v>17.36111111111111</v>
       </c>
       <c r="P11" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O11</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O11</f>
         <v>7.189583333333333</v>
       </c>
       <c r="Q11" s="95">
-        <f>P11*L11</f>
-        <v>59.91319444444445</v>
+        <f>P11*L11/3600</f>
+        <v>0.01664255401234568</v>
       </c>
     </row>
     <row r="12" ht="20.35" customHeight="1">
@@ -22787,27 +22811,27 @@
         <v>32.63888888888889</v>
       </c>
       <c r="M12" s="95">
-        <f>0.5*((J12-I12)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>14717.592592592593</v>
+        <f>(0.5*((J12-I12)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>4.088220164609053</v>
       </c>
       <c r="N12" s="95">
-        <f>L12*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>3381.18</v>
+        <f>L12*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.9392166666666667</v>
       </c>
       <c r="O12" s="95">
         <f>((I12^3+J12^3)/2)/K12</f>
         <v>59.33641975308642</v>
       </c>
       <c r="P12" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O12</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O12</f>
         <v>24.57239814814814</v>
       </c>
       <c r="Q12" s="95">
-        <f>P12*L12</f>
-        <v>802.0157728909464</v>
+        <f>P12*L12/3600</f>
+        <v>0.222782159136374</v>
       </c>
     </row>
-    <row r="13" ht="32.35" customHeight="1">
+    <row r="13" ht="20.35" customHeight="1">
       <c r="A13" s="73">
         <f>A12+1</f>
         <v>10</v>
@@ -22851,24 +22875,24 @@
         <v>213.3333333333333</v>
       </c>
       <c r="M13" s="95">
-        <f>0.5*((J13-I13)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
+        <f>(0.5*((J13-I13)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
         <v>0</v>
       </c>
       <c r="N13" s="95">
-        <f>L13*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>22099.968</v>
+        <f>L13*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>6.138880000000001</v>
       </c>
       <c r="O13" s="95">
         <f>((I13^3+J13^3)/2)/K13</f>
         <v>79.01234567901236</v>
       </c>
       <c r="P13" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O13</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O13</f>
         <v>32.72059259259259</v>
       </c>
       <c r="Q13" s="95">
-        <f>P13*L13</f>
-        <v>6980.393086419753</v>
+        <f>P13*L13/3600</f>
+        <v>1.938998079561042</v>
       </c>
     </row>
     <row r="14" ht="20.35" customHeight="1">
@@ -22917,27 +22941,27 @@
         <v>46.66666666666667</v>
       </c>
       <c r="M14" s="95">
-        <f>0.5*((J14-I14)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>24648.148148148153</v>
+        <f>(0.5*((J14-I14)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>6.846707818930042</v>
       </c>
       <c r="N14" s="95">
-        <f>L14*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>4834.368000000001</v>
+        <f>L14*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>1.34288</v>
       </c>
       <c r="O14" s="95">
         <f>((I14^3+J14^3)/2)/K14</f>
         <v>62.03703703703705</v>
       </c>
       <c r="P14" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O14</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O14</f>
         <v>25.69077777777778</v>
       </c>
       <c r="Q14" s="95">
-        <f>P14*L14</f>
-        <v>1198.902962962963</v>
+        <f>P14*L14/3600</f>
+        <v>0.3330286008230453</v>
       </c>
     </row>
-    <row r="15" ht="32.35" customHeight="1">
+    <row r="15" ht="20.35" customHeight="1">
       <c r="A15" s="73">
         <f>A14+1</f>
         <v>12</v>
@@ -22983,24 +23007,24 @@
         <v>4.166666666666666</v>
       </c>
       <c r="M15" s="95">
-        <f>0.5*((J15-I15)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>5092.592592592592</v>
+        <f>(0.5*((J15-I15)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>1.414609053497942</v>
       </c>
       <c r="N15" s="95">
-        <f>L15*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>431.6399999999999</v>
+        <f>L15*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.1199</v>
       </c>
       <c r="O15" s="95">
         <f>((I15^3+J15^3)/2)/K15</f>
         <v>7.716049382716049</v>
       </c>
       <c r="P15" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O15</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O15</f>
         <v>3.19537037037037</v>
       </c>
       <c r="Q15" s="95">
-        <f>P15*L15</f>
-        <v>13.31404320987654</v>
+        <f>P15*L15/3600</f>
+        <v>0.003698345336076816</v>
       </c>
     </row>
     <row r="16" ht="20.35" customHeight="1">
@@ -23047,20 +23071,20 @@
         <v>0</v>
       </c>
       <c r="M16" s="95">
-        <f>0.5*((J16-I16)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
+        <f>(0.5*((J16-I16)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
         <v>0</v>
       </c>
       <c r="N16" s="95">
-        <f>L16*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
+        <f>L16*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
         <v>0</v>
       </c>
       <c r="O16" s="19"/>
       <c r="P16" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O16</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O16</f>
         <v>0</v>
       </c>
       <c r="Q16" s="95">
-        <f>P16*L16</f>
+        <f>P16*L16/3600</f>
         <v>0</v>
       </c>
     </row>
@@ -23110,24 +23134,24 @@
         <v>10.41666666666667</v>
       </c>
       <c r="M17" s="95">
-        <f>0.5*((J17-I17)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>11458.333333333336</v>
+        <f>(0.5*((J17-I17)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>3.182870370370371</v>
       </c>
       <c r="N17" s="95">
-        <f>L17*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>1079.1</v>
+        <f>L17*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.29975</v>
       </c>
       <c r="O17" s="95">
         <f>((I17^3+J17^3)/2)/K17</f>
         <v>17.36111111111111</v>
       </c>
       <c r="P17" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O17</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O17</f>
         <v>7.189583333333333</v>
       </c>
       <c r="Q17" s="95">
-        <f>P17*L17</f>
-        <v>74.89149305555556</v>
+        <f>P17*L17/3600</f>
+        <v>0.0208031925154321</v>
       </c>
     </row>
     <row r="18" ht="20.35" customHeight="1">
@@ -23174,24 +23198,24 @@
         <v>8.333333333333334</v>
       </c>
       <c r="M18" s="95">
-        <f>0.5*((J18-I18)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
+        <f>(0.5*((J18-I18)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
         <v>0</v>
       </c>
       <c r="N18" s="95">
-        <f>L18*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>863.2800000000001</v>
+        <f>L18*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.2398</v>
       </c>
       <c r="O18" s="95">
         <f>((I18^3+J18^3)/2)/K18</f>
         <v>17.36111111111111</v>
       </c>
       <c r="P18" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O18</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O18</f>
         <v>7.189583333333333</v>
       </c>
       <c r="Q18" s="95">
-        <f>P18*L18</f>
-        <v>59.91319444444445</v>
+        <f>P18*L18/3600</f>
+        <v>0.01664255401234568</v>
       </c>
     </row>
     <row r="19" ht="20.35" customHeight="1">
@@ -23240,24 +23264,24 @@
         <v>62.5</v>
       </c>
       <c r="M19" s="95">
-        <f>0.5*((J19-I19)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>20370.370370370361</v>
+        <f>(0.5*((J19-I19)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>5.658436213991767</v>
       </c>
       <c r="N19" s="95">
-        <f>L19*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>6474.6</v>
+        <f>L19*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>1.7985</v>
       </c>
       <c r="O19" s="95">
         <f>((I19^3+J19^3)/2)/K19</f>
         <v>71.37345679012344</v>
       </c>
       <c r="P19" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O19</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O19</f>
         <v>29.55717592592591</v>
       </c>
       <c r="Q19" s="95">
-        <f>P19*L19</f>
-        <v>1847.323495370370</v>
+        <f>P19*L19/3600</f>
+        <v>0.5131454153806583</v>
       </c>
     </row>
     <row r="20" ht="20.35" customHeight="1">
@@ -23304,24 +23328,24 @@
         <v>19.44444444444444</v>
       </c>
       <c r="M20" s="95">
-        <f>0.5*((J20-I20)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
+        <f>(0.5*((J20-I20)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
         <v>0</v>
       </c>
       <c r="N20" s="95">
-        <f>L20*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>2014.32</v>
+        <f>L20*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.5595333333333333</v>
       </c>
       <c r="O20" s="95">
         <f>((I20^3+J20^3)/2)/K20</f>
         <v>94.52160493827159</v>
       </c>
       <c r="P20" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O20</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O20</f>
         <v>39.14328703703703</v>
       </c>
       <c r="Q20" s="95">
-        <f>P20*L20</f>
-        <v>761.1194701646087</v>
+        <f>P20*L20/3600</f>
+        <v>0.2114220750457247</v>
       </c>
     </row>
     <row r="21" ht="20.35" customHeight="1">
@@ -23370,27 +23394,27 @@
         <v>94.44444444444444</v>
       </c>
       <c r="M21" s="95">
-        <f>0.5*((J21-I21)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>11458.333333333339</v>
+        <f>(0.5*((J21-I21)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>3.182870370370372</v>
       </c>
       <c r="N21" s="95">
-        <f>L21*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>9783.84</v>
+        <f>L21*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>2.717733333333333</v>
       </c>
       <c r="O21" s="95">
         <f>((I21^3+J21^3)/2)/K21</f>
         <v>152.391975308642</v>
       </c>
       <c r="P21" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O21</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O21</f>
         <v>63.10856481481481</v>
       </c>
       <c r="Q21" s="95">
-        <f>P21*L21</f>
-        <v>5960.253343621398</v>
+        <f>P21*L21/3600</f>
+        <v>1.655625928783722</v>
       </c>
     </row>
-    <row r="22" ht="32.35" customHeight="1">
+    <row r="22" ht="20.35" customHeight="1">
       <c r="A22" s="73">
         <f>A21+1</f>
         <v>19</v>
@@ -23434,24 +23458,24 @@
         <v>166.6666666666667</v>
       </c>
       <c r="M22" s="95">
-        <f>0.5*((J22-I22)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
+        <f>(0.5*((J22-I22)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
         <v>0</v>
       </c>
       <c r="N22" s="95">
-        <f>L22*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>17265.6</v>
+        <f>L22*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>4.796</v>
       </c>
       <c r="O22" s="95">
         <f>((I22^3+J22^3)/2)/K22</f>
         <v>192.9012345679012</v>
       </c>
       <c r="P22" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O22</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O22</f>
         <v>79.88425925925925</v>
       </c>
       <c r="Q22" s="95">
-        <f>P22*L22</f>
-        <v>13314.043209876543</v>
+        <f>P22*L22/3600</f>
+        <v>3.698345336076818</v>
       </c>
     </row>
     <row r="23" ht="20.35" customHeight="1">
@@ -23500,27 +23524,27 @@
         <v>94.44444444444444</v>
       </c>
       <c r="M23" s="95">
-        <f>0.5*((J23-I23)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>11458.333333333339</v>
+        <f>(0.5*((J23-I23)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>3.182870370370372</v>
       </c>
       <c r="N23" s="95">
-        <f>L23*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>9783.84</v>
+        <f>L23*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>2.717733333333333</v>
       </c>
       <c r="O23" s="95">
         <f>((I23^3+J23^3)/2)/K23</f>
         <v>152.391975308642</v>
       </c>
       <c r="P23" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O23</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O23</f>
         <v>63.10856481481481</v>
       </c>
       <c r="Q23" s="95">
-        <f>P23*L23</f>
-        <v>5960.253343621398</v>
+        <f>P23*L23/3600</f>
+        <v>1.655625928783722</v>
       </c>
     </row>
-    <row r="24" ht="32.35" customHeight="1">
+    <row r="24" ht="20.35" customHeight="1">
       <c r="A24" s="73">
         <f>A23+1</f>
         <v>21</v>
@@ -23564,24 +23588,24 @@
         <v>126.3888888888889</v>
       </c>
       <c r="M24" s="95">
-        <f>0.5*((J24-I24)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
+        <f>(0.5*((J24-I24)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
         <v>0</v>
       </c>
       <c r="N24" s="95">
-        <f>L24*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>13093.08</v>
+        <f>L24*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>3.636966666666667</v>
       </c>
       <c r="O24" s="95">
         <f>((I24^3+J24^3)/2)/K24</f>
         <v>94.52160493827159</v>
       </c>
       <c r="P24" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O24</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O24</f>
         <v>39.14328703703703</v>
       </c>
       <c r="Q24" s="95">
-        <f>P24*L24</f>
-        <v>4947.276556069957</v>
+        <f>P24*L24/3600</f>
+        <v>1.37424348779721</v>
       </c>
     </row>
     <row r="25" ht="20.35" customHeight="1">
@@ -23628,24 +23652,24 @@
         <v>19.44444444444444</v>
       </c>
       <c r="M25" s="95">
-        <f>0.5*((J25-I25)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
+        <f>(0.5*((J25-I25)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
         <v>0</v>
       </c>
       <c r="N25" s="95">
-        <f>L25*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>2014.32</v>
+        <f>L25*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.5595333333333333</v>
       </c>
       <c r="O25" s="95">
         <f>((I25^3+J25^3)/2)/K25</f>
         <v>94.52160493827159</v>
       </c>
       <c r="P25" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O25</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O25</f>
         <v>39.14328703703703</v>
       </c>
       <c r="Q25" s="95">
-        <f>P25*L25</f>
-        <v>761.1194701646087</v>
+        <f>P25*L25/3600</f>
+        <v>0.2114220750457247</v>
       </c>
     </row>
     <row r="26" ht="20.35" customHeight="1">
@@ -23694,27 +23718,27 @@
         <v>43.75</v>
       </c>
       <c r="M26" s="95">
-        <f>0.5*((J26-I26)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>31828.7037037037</v>
+        <f>(0.5*((J26-I26)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>8.841306584362139</v>
       </c>
       <c r="N26" s="95">
-        <f>L26*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>4532.22</v>
+        <f>L26*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>1.25895</v>
       </c>
       <c r="O26" s="95">
         <f>((I26^3+J26^3)/2)/K26</f>
         <v>75.23148148148147</v>
       </c>
       <c r="P26" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O26</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O26</f>
         <v>31.1548611111111</v>
       </c>
       <c r="Q26" s="95">
-        <f>P26*L26</f>
-        <v>1363.025173611111</v>
+        <f>P26*L26/3600</f>
+        <v>0.3786181037808641</v>
       </c>
     </row>
-    <row r="27" ht="32.35" customHeight="1">
+    <row r="27" ht="20.35" customHeight="1">
       <c r="A27" s="73">
         <f>A26+1</f>
         <v>24</v>
@@ -23760,24 +23784,24 @@
         <v>4.166666666666666</v>
       </c>
       <c r="M27" s="95">
-        <f>0.5*((J27-I27)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>5092.592592592592</v>
+        <f>(0.5*((J27-I27)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>1.414609053497942</v>
       </c>
       <c r="N27" s="95">
-        <f>L27*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>431.6399999999999</v>
+        <f>L27*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.1199</v>
       </c>
       <c r="O27" s="95">
         <f>((I27^3+J27^3)/2)/K27</f>
         <v>7.716049382716049</v>
       </c>
       <c r="P27" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O27</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O27</f>
         <v>3.19537037037037</v>
       </c>
       <c r="Q27" s="95">
-        <f>P27*L27</f>
-        <v>13.31404320987654</v>
+        <f>P27*L27/3600</f>
+        <v>0.003698345336076816</v>
       </c>
     </row>
     <row r="28" ht="20.35" customHeight="1">
@@ -23824,20 +23848,20 @@
         <v>0</v>
       </c>
       <c r="M28" s="95">
-        <f>0.5*((J28-I28)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
+        <f>(0.5*((J28-I28)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
         <v>0</v>
       </c>
       <c r="N28" s="95">
-        <f>L28*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
+        <f>L28*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
         <v>0</v>
       </c>
       <c r="O28" s="19"/>
       <c r="P28" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O28</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O28</f>
         <v>0</v>
       </c>
       <c r="Q28" s="95">
-        <f>P28*L28</f>
+        <f>P28*L28/3600</f>
         <v>0</v>
       </c>
     </row>
@@ -23861,7 +23885,9 @@
       <c r="Q29" s="95"/>
     </row>
     <row r="30" ht="20.35" customHeight="1">
-      <c r="A30" s="75"/>
+      <c r="A30" t="s" s="13">
+        <v>123</v>
+      </c>
       <c r="B30" s="74"/>
       <c r="C30" s="23"/>
       <c r="D30" s="94"/>
@@ -23880,52 +23906,94 @@
       <c r="Q30" s="19"/>
     </row>
     <row r="31" ht="20.35" customHeight="1">
-      <c r="A31" t="s" s="13">
-        <v>123</v>
-      </c>
-      <c r="B31" s="74"/>
+      <c r="A31" s="73">
+        <f>A29+1</f>
+        <v>1</v>
+      </c>
+      <c r="B31" t="s" s="93">
+        <v>118</v>
+      </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
+      <c r="D31" s="94">
+        <f>F29</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="23">
+        <f>D31+(C31*G31)*3.6</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="94">
+        <v>0</v>
+      </c>
+      <c r="G31" s="94">
+        <v>20</v>
+      </c>
+      <c r="H31" s="94">
+        <f>H29+G31</f>
+        <v>20</v>
+      </c>
+      <c r="I31" s="95">
+        <f>D31/3.6</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="95">
+        <f>F31/3.6</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="95">
+        <f>(I31+J31)/2</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="95">
+        <f>(K31*G31)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="95">
+        <f>(0.5*((J31-I31)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="95">
+        <f>L31*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0</v>
+      </c>
       <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
+      <c r="P31" s="95">
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O31</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="95">
+        <f>P31*L31/3600</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" ht="20.35" customHeight="1">
       <c r="A32" s="73">
-        <f>A29+1</f>
-        <v>1</v>
+        <f>A31+1</f>
+        <v>2</v>
       </c>
       <c r="B32" t="s" s="93">
-        <v>118</v>
-      </c>
-      <c r="C32" s="23"/>
+        <v>102</v>
+      </c>
+      <c r="C32" s="23">
+        <v>0.83</v>
+      </c>
       <c r="D32" s="94">
-        <f>F29</f>
+        <f>F31</f>
         <v>0</v>
       </c>
       <c r="E32" s="23">
         <f>D32+(C32*G32)*3.6</f>
-        <v>0</v>
+        <v>14.94</v>
       </c>
       <c r="F32" s="94">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G32" s="94">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H32" s="94">
-        <f>H29+G32</f>
-        <v>20</v>
+        <f>H31+G32</f>
+        <v>25</v>
       </c>
       <c r="I32" s="95">
         <f>D32/3.6</f>
@@ -23933,66 +24001,67 @@
       </c>
       <c r="J32" s="95">
         <f>F32/3.6</f>
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="K32" s="95">
         <f>(I32+J32)/2</f>
-        <v>0</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="L32" s="95">
         <f>(K32*G32)</f>
-        <v>0</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="M32" s="95">
-        <f>0.5*((J32-I32)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>0</v>
+        <f>(0.5*((J32-I32)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>3.182870370370371</v>
       </c>
       <c r="N32" s="95">
-        <f>L32*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="19"/>
+        <f>L32*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.29975</v>
+      </c>
+      <c r="O32" s="95">
+        <f>((I32^3+J32^3)/2)/K32</f>
+        <v>17.36111111111111</v>
+      </c>
       <c r="P32" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O32</f>
-        <v>0</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O32</f>
+        <v>7.189583333333333</v>
       </c>
       <c r="Q32" s="95">
-        <f>P32*L32</f>
-        <v>0</v>
+        <f>P32*L32/3600</f>
+        <v>0.0208031925154321</v>
       </c>
     </row>
     <row r="33" ht="20.35" customHeight="1">
       <c r="A33" s="73">
         <f>A32+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s" s="93">
-        <v>102</v>
-      </c>
-      <c r="C33" s="23">
-        <v>0.83</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C33" s="23"/>
       <c r="D33" s="94">
         <f>F32</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E33" s="23">
         <f>D33+(C33*G33)*3.6</f>
-        <v>14.94</v>
+        <v>15</v>
       </c>
       <c r="F33" s="94">
         <v>15</v>
       </c>
       <c r="G33" s="94">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H33" s="94">
         <f>H32+G33</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I33" s="95">
         <f>D33/3.6</f>
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="J33" s="95">
         <f>F33/3.6</f>
@@ -24000,59 +24069,61 @@
       </c>
       <c r="K33" s="95">
         <f>(I33+J33)/2</f>
-        <v>2.083333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="L33" s="95">
         <f>(K33*G33)</f>
-        <v>10.41666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="M33" s="95">
-        <f>0.5*((J33-I33)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>11458.333333333336</v>
+        <f>(0.5*((J33-I33)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>0</v>
       </c>
       <c r="N33" s="95">
-        <f>L33*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>1079.1</v>
+        <f>L33*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.2398</v>
       </c>
       <c r="O33" s="95">
         <f>((I33^3+J33^3)/2)/K33</f>
         <v>17.36111111111111</v>
       </c>
       <c r="P33" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O33</f>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O33</f>
         <v>7.189583333333333</v>
       </c>
       <c r="Q33" s="95">
-        <f>P33*L33</f>
-        <v>74.89149305555556</v>
+        <f>P33*L33/3600</f>
+        <v>0.01664255401234568</v>
       </c>
     </row>
-    <row r="34" ht="32.35" customHeight="1">
+    <row r="34" ht="20.35" customHeight="1">
       <c r="A34" s="73">
         <f>A33+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s" s="93">
-        <v>119</v>
-      </c>
-      <c r="C34" s="23"/>
+        <v>102</v>
+      </c>
+      <c r="C34" s="23">
+        <v>0.62</v>
+      </c>
       <c r="D34" s="94">
         <f>F33</f>
         <v>15</v>
       </c>
       <c r="E34" s="23">
         <f>D34+(C34*G34)*3.6</f>
-        <v>15</v>
+        <v>35.088</v>
       </c>
       <c r="F34" s="94">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G34" s="94">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H34" s="94">
         <f>H33+G34</f>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I34" s="95">
         <f>D34/3.6</f>
@@ -24060,69 +24131,67 @@
       </c>
       <c r="J34" s="95">
         <f>F34/3.6</f>
-        <v>4.166666666666667</v>
+        <v>9.722222222222221</v>
       </c>
       <c r="K34" s="95">
         <f>(I34+J34)/2</f>
-        <v>4.166666666666667</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="L34" s="95">
         <f>(K34*G34)</f>
-        <v>8.333333333333334</v>
+        <v>62.5</v>
       </c>
       <c r="M34" s="95">
-        <f>0.5*((J34-I34)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>0</v>
+        <f>(0.5*((J34-I34)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>5.658436213991767</v>
       </c>
       <c r="N34" s="95">
-        <f>L34*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>863.2800000000001</v>
+        <f>L34*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>1.7985</v>
       </c>
       <c r="O34" s="95">
         <f>((I34^3+J34^3)/2)/K34</f>
-        <v>17.36111111111111</v>
+        <v>71.37345679012344</v>
       </c>
       <c r="P34" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O34</f>
-        <v>7.189583333333333</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O34</f>
+        <v>29.55717592592591</v>
       </c>
       <c r="Q34" s="95">
-        <f>P34*L34</f>
-        <v>59.91319444444445</v>
+        <f>P34*L34/3600</f>
+        <v>0.5131454153806583</v>
       </c>
     </row>
     <row r="35" ht="20.35" customHeight="1">
       <c r="A35" s="73">
         <f>A34+1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s" s="93">
-        <v>102</v>
-      </c>
-      <c r="C35" s="23">
-        <v>0.62</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C35" s="23"/>
       <c r="D35" s="94">
         <f>F34</f>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E35" s="23">
         <f>D35+(C35*G35)*3.6</f>
-        <v>35.088</v>
+        <v>35</v>
       </c>
       <c r="F35" s="94">
         <v>35</v>
       </c>
       <c r="G35" s="94">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H35" s="94">
         <f>H34+G35</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I35" s="95">
         <f>D35/3.6</f>
-        <v>4.166666666666667</v>
+        <v>9.722222222222221</v>
       </c>
       <c r="J35" s="95">
         <f>F35/3.6</f>
@@ -24130,59 +24199,61 @@
       </c>
       <c r="K35" s="95">
         <f>(I35+J35)/2</f>
-        <v>6.944444444444445</v>
+        <v>9.722222222222221</v>
       </c>
       <c r="L35" s="95">
         <f>(K35*G35)</f>
-        <v>62.5</v>
+        <v>19.44444444444444</v>
       </c>
       <c r="M35" s="95">
-        <f>0.5*((J35-I35)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>20370.370370370361</v>
+        <f>(0.5*((J35-I35)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>0</v>
       </c>
       <c r="N35" s="95">
-        <f>L35*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>6474.6</v>
+        <f>L35*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.5595333333333333</v>
       </c>
       <c r="O35" s="95">
         <f>((I35^3+J35^3)/2)/K35</f>
-        <v>71.37345679012344</v>
+        <v>94.52160493827159</v>
       </c>
       <c r="P35" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O35</f>
-        <v>29.55717592592591</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O35</f>
+        <v>39.14328703703703</v>
       </c>
       <c r="Q35" s="95">
-        <f>P35*L35</f>
-        <v>1847.323495370370</v>
+        <f>P35*L35/3600</f>
+        <v>0.2114220750457247</v>
       </c>
     </row>
-    <row r="36" ht="32.35" customHeight="1">
+    <row r="36" ht="20.35" customHeight="1">
       <c r="A36" s="73">
         <f>A35+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s" s="93">
-        <v>119</v>
-      </c>
-      <c r="C36" s="23"/>
+        <v>102</v>
+      </c>
+      <c r="C36" s="23">
+        <v>0.52</v>
+      </c>
       <c r="D36" s="94">
         <f>F35</f>
         <v>35</v>
       </c>
       <c r="E36" s="23">
         <f>D36+(C36*G36)*3.6</f>
-        <v>35</v>
+        <v>49.976</v>
       </c>
       <c r="F36" s="94">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G36" s="94">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H36" s="94">
         <f>H35+G36</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I36" s="95">
         <f>D36/3.6</f>
@@ -24190,69 +24261,67 @@
       </c>
       <c r="J36" s="95">
         <f>F36/3.6</f>
-        <v>9.722222222222221</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="K36" s="95">
         <f>(I36+J36)/2</f>
-        <v>9.722222222222221</v>
+        <v>11.80555555555556</v>
       </c>
       <c r="L36" s="95">
         <f>(K36*G36)</f>
-        <v>19.44444444444444</v>
+        <v>94.44444444444444</v>
       </c>
       <c r="M36" s="95">
-        <f>0.5*((J36-I36)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>0</v>
+        <f>(0.5*((J36-I36)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>3.182870370370372</v>
       </c>
       <c r="N36" s="95">
-        <f>L36*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>2014.32</v>
+        <f>L36*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>2.717733333333333</v>
       </c>
       <c r="O36" s="95">
         <f>((I36^3+J36^3)/2)/K36</f>
-        <v>94.52160493827159</v>
+        <v>152.391975308642</v>
       </c>
       <c r="P36" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O36</f>
-        <v>39.14328703703703</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O36</f>
+        <v>63.10856481481481</v>
       </c>
       <c r="Q36" s="95">
-        <f>P36*L36</f>
-        <v>761.1194701646087</v>
+        <f>P36*L36/3600</f>
+        <v>1.655625928783722</v>
       </c>
     </row>
     <row r="37" ht="20.35" customHeight="1">
       <c r="A37" s="73">
         <f>A36+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s" s="93">
-        <v>102</v>
-      </c>
-      <c r="C37" s="23">
-        <v>0.52</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C37" s="23"/>
       <c r="D37" s="94">
         <f>F36</f>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E37" s="23">
         <f>D37+(C37*G37)*3.6</f>
-        <v>49.976</v>
+        <v>50</v>
       </c>
       <c r="F37" s="94">
         <v>50</v>
       </c>
       <c r="G37" s="94">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H37" s="94">
         <f>H36+G37</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I37" s="95">
         <f>D37/3.6</f>
-        <v>9.722222222222221</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="J37" s="95">
         <f>F37/3.6</f>
@@ -24260,59 +24329,61 @@
       </c>
       <c r="K37" s="95">
         <f>(I37+J37)/2</f>
-        <v>11.80555555555556</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="L37" s="95">
         <f>(K37*G37)</f>
-        <v>94.44444444444444</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="M37" s="95">
-        <f>0.5*((J37-I37)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>11458.333333333339</v>
+        <f>(0.5*((J37-I37)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>0</v>
       </c>
       <c r="N37" s="95">
-        <f>L37*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>9783.84</v>
+        <f>L37*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0.7993333333333333</v>
       </c>
       <c r="O37" s="95">
         <f>((I37^3+J37^3)/2)/K37</f>
-        <v>152.391975308642</v>
+        <v>192.9012345679012</v>
       </c>
       <c r="P37" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O37</f>
-        <v>63.10856481481481</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O37</f>
+        <v>79.88425925925925</v>
       </c>
       <c r="Q37" s="95">
-        <f>P37*L37</f>
-        <v>5960.253343621398</v>
+        <f>P37*L37/3600</f>
+        <v>0.6163908893461362</v>
       </c>
     </row>
-    <row r="38" ht="32.35" customHeight="1">
+    <row r="38" ht="20.35" customHeight="1">
       <c r="A38" s="73">
         <f>A37+1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s" s="93">
-        <v>119</v>
-      </c>
-      <c r="C38" s="23"/>
+        <v>102</v>
+      </c>
+      <c r="C38" s="23">
+        <v>0.43</v>
+      </c>
       <c r="D38" s="94">
         <f>F37</f>
         <v>50</v>
       </c>
       <c r="E38" s="23">
         <f>D38+(C38*G38)*3.6</f>
-        <v>50</v>
+        <v>70.124</v>
       </c>
       <c r="F38" s="94">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G38" s="94">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H38" s="94">
         <f>H37+G38</f>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I38" s="95">
         <f>D38/3.6</f>
@@ -24320,69 +24391,67 @@
       </c>
       <c r="J38" s="95">
         <f>F38/3.6</f>
-        <v>13.88888888888889</v>
+        <v>19.44444444444444</v>
       </c>
       <c r="K38" s="95">
         <f>(I38+J38)/2</f>
-        <v>13.88888888888889</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L38" s="95">
         <f>(K38*G38)</f>
-        <v>27.77777777777778</v>
+        <v>216.6666666666666</v>
       </c>
       <c r="M38" s="95">
-        <f>0.5*((J38-I38)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>0</v>
+        <f>(0.5*((J38-I38)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>5.658436213991765</v>
       </c>
       <c r="N38" s="95">
-        <f>L38*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>2877.6</v>
+        <f>L38*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>6.234799999999999</v>
       </c>
       <c r="O38" s="95">
         <f>((I38^3+J38^3)/2)/K38</f>
-        <v>192.9012345679012</v>
+        <v>300.925925925926</v>
       </c>
       <c r="P38" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O38</f>
-        <v>79.88425925925925</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O38</f>
+        <v>124.6194444444444</v>
       </c>
       <c r="Q38" s="95">
-        <f>P38*L38</f>
-        <v>2219.007201646090</v>
+        <f>P38*L38/3600</f>
+        <v>7.500244341563785</v>
       </c>
     </row>
     <row r="39" ht="20.35" customHeight="1">
       <c r="A39" s="73">
         <f>A38+1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s" s="93">
-        <v>102</v>
-      </c>
-      <c r="C39" s="23">
-        <v>0.43</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C39" s="23"/>
       <c r="D39" s="94">
         <f>F38</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E39" s="23">
         <f>D39+(C39*G39)*3.6</f>
-        <v>70.124</v>
+        <v>70</v>
       </c>
       <c r="F39" s="94">
         <v>70</v>
       </c>
       <c r="G39" s="94">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H39" s="94">
         <f>H38+G39</f>
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="I39" s="95">
         <f>D39/3.6</f>
-        <v>13.88888888888889</v>
+        <v>19.44444444444444</v>
       </c>
       <c r="J39" s="95">
         <f>F39/3.6</f>
@@ -24390,59 +24459,61 @@
       </c>
       <c r="K39" s="95">
         <f>(I39+J39)/2</f>
-        <v>16.66666666666666</v>
+        <v>19.44444444444444</v>
       </c>
       <c r="L39" s="95">
         <f>(K39*G39)</f>
-        <v>216.6666666666666</v>
+        <v>972.2222222222222</v>
       </c>
       <c r="M39" s="95">
-        <f>0.5*((J39-I39)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>20370.370370370354</v>
+        <f>(0.5*((J39-I39)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>0</v>
       </c>
       <c r="N39" s="95">
-        <f>L39*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>22445.28</v>
+        <f>L39*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>27.97666666666667</v>
       </c>
       <c r="O39" s="95">
         <f>((I39^3+J39^3)/2)/K39</f>
-        <v>300.925925925926</v>
+        <v>378.0864197530864</v>
       </c>
       <c r="P39" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O39</f>
-        <v>124.6194444444444</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O39</f>
+        <v>156.5731481481481</v>
       </c>
       <c r="Q39" s="95">
-        <f>P39*L39</f>
-        <v>27000.879629629624</v>
+        <f>P39*L39/3600</f>
+        <v>42.28441500914494</v>
       </c>
     </row>
-    <row r="40" ht="32.35" customHeight="1">
+    <row r="40" ht="20.35" customHeight="1">
       <c r="A40" s="73">
         <f>A39+1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s" s="93">
-        <v>119</v>
-      </c>
-      <c r="C40" s="23"/>
+        <v>120</v>
+      </c>
+      <c r="C40" s="23">
+        <v>-0.6899999999999999</v>
+      </c>
       <c r="D40" s="94">
         <f>F39</f>
         <v>70</v>
       </c>
       <c r="E40" s="23">
         <f>D40+(C40*G40)*3.6</f>
-        <v>70</v>
+        <v>50.128</v>
       </c>
       <c r="F40" s="94">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G40" s="94">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H40" s="94">
         <f>H39+G40</f>
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I40" s="95">
         <f>D40/3.6</f>
@@ -24450,69 +24521,67 @@
       </c>
       <c r="J40" s="95">
         <f>F40/3.6</f>
-        <v>19.44444444444444</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="K40" s="95">
         <f>(I40+J40)/2</f>
-        <v>19.44444444444444</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L40" s="95">
         <f>(K40*G40)</f>
-        <v>972.2222222222222</v>
+        <v>133.3333333333333</v>
       </c>
       <c r="M40" s="95">
-        <f>0.5*((J40-I40)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>0</v>
+        <f>(0.5*((J40-I40)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>5.658436213991765</v>
       </c>
       <c r="N40" s="95">
-        <f>L40*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>100716</v>
+        <f>L40*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>3.836799999999999</v>
       </c>
       <c r="O40" s="95">
         <f>((I40^3+J40^3)/2)/K40</f>
-        <v>378.0864197530864</v>
+        <v>300.925925925926</v>
       </c>
       <c r="P40" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O40</f>
-        <v>156.5731481481481</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O40</f>
+        <v>124.6194444444444</v>
       </c>
       <c r="Q40" s="95">
-        <f>P40*L40</f>
-        <v>152223.8940329218</v>
+        <f>P40*L40/3600</f>
+        <v>4.615534979423868</v>
       </c>
     </row>
     <row r="41" ht="20.35" customHeight="1">
       <c r="A41" s="73">
         <f>A40+1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s" s="93">
-        <v>120</v>
-      </c>
-      <c r="C41" s="23">
-        <v>-0.6899999999999999</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C41" s="23"/>
       <c r="D41" s="94">
         <f>F40</f>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E41" s="23">
         <f>D41+(C41*G41)*3.6</f>
-        <v>50.128</v>
+        <v>50</v>
       </c>
       <c r="F41" s="94">
         <v>50</v>
       </c>
       <c r="G41" s="94">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="H41" s="94">
         <f>H40+G41</f>
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="I41" s="95">
         <f>D41/3.6</f>
-        <v>19.44444444444444</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="J41" s="95">
         <f>F41/3.6</f>
@@ -24520,59 +24589,61 @@
       </c>
       <c r="K41" s="95">
         <f>(I41+J41)/2</f>
-        <v>16.66666666666666</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="L41" s="95">
         <f>(K41*G41)</f>
-        <v>133.3333333333333</v>
+        <v>958.3333333333334</v>
       </c>
       <c r="M41" s="95">
-        <f>0.5*((J41-I41)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>20370.370370370354</v>
+        <f>(0.5*((J41-I41)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>0</v>
       </c>
       <c r="N41" s="95">
-        <f>L41*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>13812.48</v>
+        <f>L41*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>27.577</v>
       </c>
       <c r="O41" s="95">
         <f>((I41^3+J41^3)/2)/K41</f>
-        <v>300.925925925926</v>
+        <v>192.9012345679012</v>
       </c>
       <c r="P41" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O41</f>
-        <v>124.6194444444444</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O41</f>
+        <v>79.88425925925925</v>
       </c>
       <c r="Q41" s="95">
-        <f>P41*L41</f>
-        <v>16615.925925925923</v>
+        <f>P41*L41/3600</f>
+        <v>21.2654856824417</v>
       </c>
     </row>
-    <row r="42" ht="32.35" customHeight="1">
+    <row r="42" ht="20.35" customHeight="1">
       <c r="A42" s="73">
         <f>A41+1</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s" s="93">
-        <v>119</v>
-      </c>
-      <c r="C42" s="23"/>
+        <v>102</v>
+      </c>
+      <c r="C42" s="23">
+        <v>0.43</v>
+      </c>
       <c r="D42" s="94">
         <f>F41</f>
         <v>50</v>
       </c>
       <c r="E42" s="23">
         <f>D42+(C42*G42)*3.6</f>
-        <v>50</v>
+        <v>70.124</v>
       </c>
       <c r="F42" s="94">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G42" s="94">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="H42" s="94">
         <f>H41+G42</f>
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="I42" s="95">
         <f>D42/3.6</f>
@@ -24580,69 +24651,67 @@
       </c>
       <c r="J42" s="95">
         <f>F42/3.6</f>
-        <v>13.88888888888889</v>
+        <v>19.44444444444444</v>
       </c>
       <c r="K42" s="95">
         <f>(I42+J42)/2</f>
-        <v>13.88888888888889</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L42" s="95">
         <f>(K42*G42)</f>
-        <v>958.3333333333334</v>
+        <v>216.6666666666666</v>
       </c>
       <c r="M42" s="95">
-        <f>0.5*((J42-I42)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>0</v>
+        <f>(0.5*((J42-I42)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>5.658436213991765</v>
       </c>
       <c r="N42" s="95">
-        <f>L42*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>99277.200000000012</v>
+        <f>L42*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>6.234799999999999</v>
       </c>
       <c r="O42" s="95">
         <f>((I42^3+J42^3)/2)/K42</f>
-        <v>192.9012345679012</v>
+        <v>300.925925925926</v>
       </c>
       <c r="P42" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O42</f>
-        <v>79.88425925925925</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O42</f>
+        <v>124.6194444444444</v>
       </c>
       <c r="Q42" s="95">
-        <f>P42*L42</f>
-        <v>76555.748456790127</v>
+        <f>P42*L42/3600</f>
+        <v>7.500244341563785</v>
       </c>
     </row>
     <row r="43" ht="20.35" customHeight="1">
       <c r="A43" s="73">
         <f>A42+1</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s" s="93">
-        <v>102</v>
-      </c>
-      <c r="C43" s="23">
-        <v>0.43</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C43" s="23"/>
       <c r="D43" s="94">
         <f>F42</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E43" s="23">
         <f>D43+(C43*G43)*3.6</f>
-        <v>70.124</v>
+        <v>70</v>
       </c>
       <c r="F43" s="94">
         <v>70</v>
       </c>
       <c r="G43" s="94">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H43" s="94">
         <f>H42+G43</f>
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="I43" s="95">
         <f>D43/3.6</f>
-        <v>13.88888888888889</v>
+        <v>19.44444444444444</v>
       </c>
       <c r="J43" s="95">
         <f>F43/3.6</f>
@@ -24650,59 +24719,61 @@
       </c>
       <c r="K43" s="95">
         <f>(I43+J43)/2</f>
-        <v>16.66666666666666</v>
+        <v>19.44444444444444</v>
       </c>
       <c r="L43" s="95">
         <f>(K43*G43)</f>
-        <v>216.6666666666666</v>
+        <v>972.2222222222222</v>
       </c>
       <c r="M43" s="95">
-        <f>0.5*((J43-I43)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>20370.370370370354</v>
+        <f>(0.5*((J43-I43)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>0</v>
       </c>
       <c r="N43" s="95">
-        <f>L43*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>22445.28</v>
+        <f>L43*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>27.97666666666667</v>
       </c>
       <c r="O43" s="95">
         <f>((I43^3+J43^3)/2)/K43</f>
-        <v>300.925925925926</v>
+        <v>378.0864197530864</v>
       </c>
       <c r="P43" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O43</f>
-        <v>124.6194444444444</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O43</f>
+        <v>156.5731481481481</v>
       </c>
       <c r="Q43" s="95">
-        <f>P43*L43</f>
-        <v>27000.879629629624</v>
+        <f>P43*L43/3600</f>
+        <v>42.28441500914494</v>
       </c>
     </row>
     <row r="44" ht="20.35" customHeight="1">
       <c r="A44" s="73">
         <f>A43+1</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s" s="93">
-        <v>118</v>
-      </c>
-      <c r="C44" s="23"/>
+        <v>102</v>
+      </c>
+      <c r="C44" s="23">
+        <v>0.24</v>
+      </c>
       <c r="D44" s="94">
         <f>F43</f>
         <v>70</v>
       </c>
       <c r="E44" s="23">
         <f>D44+(C44*G44)*3.6</f>
-        <v>70</v>
+        <v>100.24</v>
       </c>
       <c r="F44" s="94">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G44" s="94">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H44" s="94">
         <f>H43+G44</f>
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="I44" s="95">
         <f>D44/3.6</f>
@@ -24710,69 +24781,67 @@
       </c>
       <c r="J44" s="95">
         <f>F44/3.6</f>
-        <v>19.44444444444444</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="K44" s="95">
         <f>(I44+J44)/2</f>
-        <v>19.44444444444444</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="L44" s="95">
         <f>(K44*G44)</f>
-        <v>972.2222222222222</v>
+        <v>826.3888888888889</v>
       </c>
       <c r="M44" s="95">
-        <f>0.5*((J44-I44)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>0</v>
+        <f>(0.5*((J44-I44)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>12.73148148148149</v>
       </c>
       <c r="N44" s="95">
-        <f>L44*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>100716</v>
+        <f>L44*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>23.78016666666666</v>
       </c>
       <c r="O44" s="95">
         <f>((I44^3+J44^3)/2)/K44</f>
-        <v>378.0864197530864</v>
+        <v>609.5679012345679</v>
       </c>
       <c r="P44" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O44</f>
-        <v>156.5731481481481</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O44</f>
+        <v>252.4342592592592</v>
       </c>
       <c r="Q44" s="95">
-        <f>P44*L44</f>
-        <v>152223.8940329218</v>
+        <f>P44*L44/3600</f>
+        <v>57.94690750743026</v>
       </c>
     </row>
     <row r="45" ht="20.35" customHeight="1">
       <c r="A45" s="73">
         <f>A44+1</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s" s="93">
-        <v>102</v>
-      </c>
-      <c r="C45" s="23">
-        <v>0.24</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C45" s="23"/>
       <c r="D45" s="94">
         <f>F44</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E45" s="23">
         <f>D45+(C45*G45)*3.6</f>
-        <v>100.24</v>
+        <v>100</v>
       </c>
       <c r="F45" s="94">
         <v>100</v>
       </c>
       <c r="G45" s="94">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H45" s="94">
         <f>H44+G45</f>
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="I45" s="95">
         <f>D45/3.6</f>
-        <v>19.44444444444444</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="J45" s="95">
         <f>F45/3.6</f>
@@ -24780,59 +24849,61 @@
       </c>
       <c r="K45" s="95">
         <f>(I45+J45)/2</f>
-        <v>23.61111111111111</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L45" s="95">
         <f>(K45*G45)</f>
-        <v>826.3888888888889</v>
+        <v>833.3333333333334</v>
       </c>
       <c r="M45" s="95">
-        <f>0.5*((J45-I45)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>45833.333333333358</v>
+        <f>(0.5*((J45-I45)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>0</v>
       </c>
       <c r="N45" s="95">
-        <f>L45*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>85608.599999999991</v>
+        <f>L45*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>23.98</v>
       </c>
       <c r="O45" s="95">
         <f>((I45^3+J45^3)/2)/K45</f>
-        <v>609.5679012345679</v>
+        <v>771.604938271605</v>
       </c>
       <c r="P45" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O45</f>
-        <v>252.4342592592592</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O45</f>
+        <v>319.537037037037</v>
       </c>
       <c r="Q45" s="95">
-        <f>P45*L45</f>
-        <v>208608.867026749</v>
+        <f>P45*L45/3600</f>
+        <v>73.96690672153635</v>
       </c>
     </row>
-    <row r="46" ht="32.35" customHeight="1">
+    <row r="46" ht="20.35" customHeight="1">
       <c r="A46" s="73">
         <f>A45+1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s" s="93">
-        <v>119</v>
-      </c>
-      <c r="C46" s="23"/>
+        <v>102</v>
+      </c>
+      <c r="C46" s="23">
+        <v>0.28</v>
+      </c>
       <c r="D46" s="94">
         <f>F45</f>
         <v>100</v>
       </c>
       <c r="E46" s="23">
         <f>D46+(C46*G46)*3.6</f>
-        <v>100</v>
+        <v>120.16</v>
       </c>
       <c r="F46" s="94">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G46" s="94">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H46" s="94">
         <f>H45+G46</f>
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="I46" s="95">
         <f>D46/3.6</f>
@@ -24840,69 +24911,67 @@
       </c>
       <c r="J46" s="95">
         <f>F46/3.6</f>
-        <v>27.77777777777778</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="K46" s="95">
         <f>(I46+J46)/2</f>
-        <v>27.77777777777778</v>
+        <v>30.55555555555556</v>
       </c>
       <c r="L46" s="95">
         <f>(K46*G46)</f>
-        <v>833.3333333333334</v>
+        <v>611.1111111111111</v>
       </c>
       <c r="M46" s="95">
-        <f>0.5*((J46-I46)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>0</v>
+        <f>(0.5*((J46-I46)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>5.658436213991772</v>
       </c>
       <c r="N46" s="95">
-        <f>L46*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>86328</v>
+        <f>L46*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>17.58533333333333</v>
       </c>
       <c r="O46" s="95">
         <f>((I46^3+J46^3)/2)/K46</f>
-        <v>771.604938271605</v>
+        <v>956.7901234567902</v>
       </c>
       <c r="P46" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O46</f>
-        <v>319.537037037037</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O46</f>
+        <v>396.2259259259259</v>
       </c>
       <c r="Q46" s="95">
-        <f>P46*L46</f>
-        <v>266280.8641975308</v>
+        <f>P46*L46/3600</f>
+        <v>67.26057384545038</v>
       </c>
     </row>
     <row r="47" ht="20.35" customHeight="1">
       <c r="A47" s="73">
         <f>A46+1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s" s="93">
-        <v>102</v>
-      </c>
-      <c r="C47" s="23">
-        <v>0.28</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C47" s="23"/>
       <c r="D47" s="94">
         <f>F46</f>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E47" s="23">
         <f>D47+(C47*G47)*3.6</f>
-        <v>120.16</v>
+        <v>120</v>
       </c>
       <c r="F47" s="94">
         <v>120</v>
       </c>
       <c r="G47" s="94">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H47" s="94">
         <f>H46+G47</f>
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="I47" s="95">
         <f>D47/3.6</f>
-        <v>27.77777777777778</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="J47" s="95">
         <f>F47/3.6</f>
@@ -24910,59 +24979,61 @@
       </c>
       <c r="K47" s="95">
         <f>(I47+J47)/2</f>
-        <v>30.55555555555556</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="L47" s="95">
         <f>(K47*G47)</f>
-        <v>611.1111111111111</v>
+        <v>333.3333333333334</v>
       </c>
       <c r="M47" s="95">
-        <f>0.5*((J47-I47)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>20370.370370370380</v>
+        <f>(0.5*((J47-I47)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>0</v>
       </c>
       <c r="N47" s="95">
-        <f>L47*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>63307.2</v>
+        <f>L47*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>9.592000000000001</v>
       </c>
       <c r="O47" s="95">
         <f>((I47^3+J47^3)/2)/K47</f>
-        <v>956.7901234567902</v>
+        <v>1111.111111111111</v>
       </c>
       <c r="P47" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O47</f>
-        <v>396.2259259259259</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O47</f>
+        <v>460.1333333333333</v>
       </c>
       <c r="Q47" s="95">
-        <f>P47*L47</f>
-        <v>242138.0658436214</v>
+        <f>P47*L47/3600</f>
+        <v>42.60493827160494</v>
       </c>
     </row>
-    <row r="48" ht="32.35" customHeight="1">
+    <row r="48" ht="20.35" customHeight="1">
       <c r="A48" s="73">
         <f>A47+1</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s" s="93">
-        <v>119</v>
-      </c>
-      <c r="C48" s="23"/>
+        <v>120</v>
+      </c>
+      <c r="C48" s="23">
+        <v>-0.6899999999999999</v>
+      </c>
       <c r="D48" s="94">
         <f>F47</f>
         <v>120</v>
       </c>
       <c r="E48" s="23">
         <f>D48+(C48*G48)*3.6</f>
-        <v>120</v>
+        <v>80.256</v>
       </c>
       <c r="F48" s="94">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G48" s="94">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H48" s="94">
         <f>H47+G48</f>
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="I48" s="95">
         <f>D48/3.6</f>
@@ -24970,201 +25041,199 @@
       </c>
       <c r="J48" s="95">
         <f>F48/3.6</f>
-        <v>33.33333333333334</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="K48" s="95">
         <f>(I48+J48)/2</f>
-        <v>33.33333333333334</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L48" s="95">
         <f>(K48*G48)</f>
-        <v>333.3333333333334</v>
+        <v>444.4444444444445</v>
       </c>
       <c r="M48" s="95">
-        <f>0.5*((J48-I48)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>0</v>
+        <f>(0.5*((J48-I48)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>22.63374485596709</v>
       </c>
       <c r="N48" s="95">
-        <f>L48*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>34531.2</v>
+        <f>L48*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>12.78933333333333</v>
       </c>
       <c r="O48" s="95">
         <f>((I48^3+J48^3)/2)/K48</f>
-        <v>1111.111111111111</v>
+        <v>864.1975308641977</v>
       </c>
       <c r="P48" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O48</f>
-        <v>460.1333333333333</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O48</f>
+        <v>357.8814814814815</v>
       </c>
       <c r="Q48" s="95">
-        <f>P48*L48</f>
-        <v>153377.7777777778</v>
+        <f>P48*L48/3600</f>
+        <v>44.18289894833105</v>
       </c>
     </row>
     <row r="49" ht="20.35" customHeight="1">
       <c r="A49" s="73">
         <f>A48+1</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s" s="93">
         <v>120</v>
       </c>
       <c r="C49" s="23">
-        <v>-0.6899999999999999</v>
+        <v>-1.04</v>
       </c>
       <c r="D49" s="94">
         <f>F48</f>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E49" s="23">
         <f>D49+(C49*G49)*3.6</f>
-        <v>80.256</v>
+        <v>50.048</v>
       </c>
       <c r="F49" s="94">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G49" s="94">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H49" s="94">
         <f>H48+G49</f>
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="I49" s="95">
         <f>D49/3.6</f>
-        <v>33.33333333333334</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="J49" s="95">
         <f>F49/3.6</f>
-        <v>22.22222222222222</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="K49" s="95">
         <f>(I49+J49)/2</f>
-        <v>27.77777777777778</v>
+        <v>18.05555555555556</v>
       </c>
       <c r="L49" s="95">
         <f>(K49*G49)</f>
-        <v>444.4444444444445</v>
+        <v>144.4444444444445</v>
       </c>
       <c r="M49" s="95">
-        <f>0.5*((J49-I49)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>81481.481481481518</v>
+        <f>(0.5*((J49-I49)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>12.73148148148148</v>
       </c>
       <c r="N49" s="95">
-        <f>L49*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>46041.6</v>
+        <f>L49*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>4.156533333333334</v>
       </c>
       <c r="O49" s="95">
         <f>((I49^3+J49^3)/2)/K49</f>
-        <v>864.1975308641977</v>
+        <v>378.0864197530864</v>
       </c>
       <c r="P49" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O49</f>
-        <v>357.8814814814815</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O49</f>
+        <v>156.5731481481481</v>
       </c>
       <c r="Q49" s="95">
-        <f>P49*L49</f>
-        <v>159058.4362139918</v>
+        <f>P49*L49/3600</f>
+        <v>6.282255944215819</v>
       </c>
     </row>
     <row r="50" ht="20.35" customHeight="1">
       <c r="A50" s="73">
         <f>A49+1</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s" s="93">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C50" s="23">
-        <v>-1.04</v>
+        <v>-1.39</v>
       </c>
       <c r="D50" s="94">
         <f>F49</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E50" s="23">
         <f>D50+(C50*G50)*3.6</f>
-        <v>50.048</v>
+        <v>-0.03999999999999915</v>
       </c>
       <c r="F50" s="94">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G50" s="94">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H50" s="94">
         <f>H49+G50</f>
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="I50" s="95">
         <f>D50/3.6</f>
-        <v>22.22222222222222</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="J50" s="95">
         <f>F50/3.6</f>
-        <v>13.88888888888889</v>
+        <v>0</v>
       </c>
       <c r="K50" s="95">
         <f>(I50+J50)/2</f>
-        <v>18.05555555555556</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="L50" s="95">
         <f>(K50*G50)</f>
-        <v>144.4444444444445</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="M50" s="95">
-        <f>0.5*((J50-I50)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>45833.333333333321</v>
+        <f>(0.5*((J50-I50)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>35.36522633744856</v>
       </c>
       <c r="N50" s="95">
-        <f>L50*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>14963.52</v>
+        <f>L50*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>1.998333333333334</v>
       </c>
       <c r="O50" s="95">
         <f>((I50^3+J50^3)/2)/K50</f>
-        <v>378.0864197530864</v>
+        <v>192.9012345679012</v>
       </c>
       <c r="P50" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O50</f>
-        <v>156.5731481481481</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O50</f>
+        <v>79.88425925925925</v>
       </c>
       <c r="Q50" s="95">
-        <f>P50*L50</f>
-        <v>22616.121399176951</v>
+        <f>P50*L50/3600</f>
+        <v>1.540977223365341</v>
       </c>
     </row>
-    <row r="51" ht="32.35" customHeight="1">
+    <row r="51" ht="20.35" customHeight="1">
       <c r="A51" s="73">
         <f>A50+1</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s" s="93">
-        <v>121</v>
-      </c>
-      <c r="C51" s="23">
-        <v>-1.39</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C51" s="23"/>
       <c r="D51" s="94">
         <f>F50</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E51" s="23">
         <f>D51+(C51*G51)*3.6</f>
-        <v>-0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F51" s="94">
         <v>0</v>
       </c>
       <c r="G51" s="94">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H51" s="94">
         <f>H50+G51</f>
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="I51" s="95">
         <f>D51/3.6</f>
-        <v>13.88888888888889</v>
+        <v>0</v>
       </c>
       <c r="J51" s="95">
         <f>F51/3.6</f>
@@ -25172,91 +25241,27 @@
       </c>
       <c r="K51" s="95">
         <f>(I51+J51)/2</f>
-        <v>6.944444444444445</v>
+        <v>0</v>
       </c>
       <c r="L51" s="95">
         <f>(K51*G51)</f>
-        <v>69.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="M51" s="95">
-        <f>0.5*((J51-I51)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>127314.8148148148</v>
+        <f>(0.5*((J51-I51)^2)*'NEFZ Comparison - Startwerte'!$B$3)/3600</f>
+        <v>0</v>
       </c>
       <c r="N51" s="95">
-        <f>L51*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>7194.000000000001</v>
-      </c>
-      <c r="O51" s="95">
-        <f>((I51^3+J51^3)/2)/K51</f>
-        <v>192.9012345679012</v>
-      </c>
+        <f>L51*'NEFZ Comparison - Startwerte'!$B$3*'NEFZ Comparison - Startwerte'!$B$6*'NEFZ Comparison - Konstanten'!$B$4/3600</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="95"/>
       <c r="P51" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O51</f>
-        <v>79.88425925925925</v>
+        <f>0.5*'NEFZ Comparison - NEFZ Berechnu'!$B$9*'NEFZ Comparison - Konstanten'!$B$3*O51</f>
+        <v>0</v>
       </c>
       <c r="Q51" s="95">
-        <f>P51*L51</f>
-        <v>5547.518004115226</v>
-      </c>
-    </row>
-    <row r="52" ht="20.35" customHeight="1">
-      <c r="A52" s="73">
-        <f>A51+1</f>
-        <v>21</v>
-      </c>
-      <c r="B52" t="s" s="93">
-        <v>118</v>
-      </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="94">
-        <f>F51</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="23">
-        <f>D52+(C52*G52)*3.6</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="94">
-        <v>0</v>
-      </c>
-      <c r="G52" s="94">
-        <v>20</v>
-      </c>
-      <c r="H52" s="94">
-        <f>H51+G52</f>
-        <v>400</v>
-      </c>
-      <c r="I52" s="95">
-        <f>D52/3.6</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="95">
-        <f>F52/3.6</f>
-        <v>0</v>
-      </c>
-      <c r="K52" s="95">
-        <f>(I52+J52)/2</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="95">
-        <f>(K52*G52)</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="95">
-        <f>0.5*((J52-I52)^2)*'NEFZ-2 - Startwerte'!$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="N52" s="95">
-        <f>L52*'NEFZ-2 - Startwerte'!$B$3*'NEFZ-2 - Startwerte'!$B$6*'NEFZ-2 - Konstanten'!$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="95"/>
-      <c r="P52" s="95">
-        <f>0.5*'NEFZ-2 - NEFZ Berechnung Zusamm'!$B$9*'NEFZ-2 - Konstanten'!$B$3*O52</f>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="95">
-        <f>P52*L52</f>
+        <f>P51*L51/3600</f>
         <v>0</v>
       </c>
     </row>
@@ -25307,16 +25312,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.9531" style="114" customWidth="1"/>
-    <col min="2" max="2" width="46.3047" style="114" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="114" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="114" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="114" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="114" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="114" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="114" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="114" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="114" customWidth="1"/>
+    <col min="1" max="1" width="12.9531" style="116" customWidth="1"/>
+    <col min="2" max="2" width="46.3047" style="116" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="116" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="116" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="116" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="116" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="116" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="116" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="116" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="116" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.55" customHeight="1">
@@ -25326,24 +25331,24 @@
         <v>53</v>
       </c>
       <c r="E1" t="s" s="7">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F1" t="s" s="7">
         <v>75</v>
       </c>
       <c r="G1" t="s" s="7">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H1" t="s" s="7">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I1" s="7"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
       <c r="B2" t="s" s="77">
-        <v>157</v>
-      </c>
-      <c r="C2" s="115"/>
+        <v>163</v>
+      </c>
+      <c r="C2" s="117"/>
       <c r="D2" s="10">
         <v>42.8</v>
       </c>
@@ -25353,7 +25358,7 @@
       <c r="F2" s="11">
         <v>9.5</v>
       </c>
-      <c r="G2" s="116">
+      <c r="G2" s="118">
         <f>(E2/D2*0.0416666666666667)</f>
         <v>0.1810747663551402</v>
       </c>
@@ -25364,7 +25369,7 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="B3" s="117"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="75"/>
       <c r="D3" s="14">
         <v>46</v>
@@ -25375,7 +25380,7 @@
       <c r="F3" s="15">
         <v>7.6</v>
       </c>
-      <c r="G3" s="118">
+      <c r="G3" s="120">
         <f>(E3/D3*0.0416666666666667)</f>
         <v>0.2173913043478261</v>
       </c>
@@ -25386,7 +25391,7 @@
       <c r="I3" s="15"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="B4" s="117"/>
+      <c r="B4" s="119"/>
       <c r="C4" s="75"/>
       <c r="D4" s="14">
         <v>51.1</v>
@@ -25397,7 +25402,7 @@
       <c r="F4" s="15">
         <v>8.9</v>
       </c>
-      <c r="G4" s="118">
+      <c r="G4" s="120">
         <f>(E4/D4*0.0416666666666667)</f>
         <v>0.1223091976516634</v>
       </c>
@@ -25408,7 +25413,7 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="B5" s="117"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="75"/>
       <c r="D5" s="14">
         <v>56.2</v>
@@ -25419,7 +25424,7 @@
       <c r="F5" s="15">
         <v>9.800000000000001</v>
       </c>
-      <c r="G5" s="118">
+      <c r="G5" s="120">
         <f>(E5/D5*0.0416666666666667)</f>
         <v>0.137158956109134</v>
       </c>
@@ -25430,7 +25435,7 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="B6" s="117"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="75"/>
       <c r="D6" s="14">
         <v>82.7</v>
@@ -25441,7 +25446,7 @@
       <c r="F6" s="15">
         <v>10.6</v>
       </c>
-      <c r="G6" s="118">
+      <c r="G6" s="120">
         <f>(E6/D6*0.0416666666666667)</f>
         <v>0.08313180169286578</v>
       </c>
@@ -25452,7 +25457,7 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="B7" s="117"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="75"/>
       <c r="D7" s="14">
         <v>82.5</v>
@@ -25463,7 +25468,7 @@
       <c r="F7" s="15">
         <v>10.5</v>
       </c>
-      <c r="G7" s="118">
+      <c r="G7" s="120">
         <f>(E7/D7*0.0416666666666667)</f>
         <v>0.08535353535353535</v>
       </c>
@@ -25474,7 +25479,7 @@
       <c r="I7" s="15"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="B8" s="117"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="75"/>
       <c r="D8" s="14">
         <v>101.4</v>
@@ -25485,7 +25490,7 @@
       <c r="F8" s="15">
         <v>22.4</v>
       </c>
-      <c r="G8" s="118">
+      <c r="G8" s="120">
         <f>(E8/D8*0.0416666666666667)</f>
         <v>0.02917488494411571</v>
       </c>
@@ -25496,7 +25501,7 @@
       <c r="I8" s="15"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="B9" s="117"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="75"/>
       <c r="D9" s="14">
         <v>52.4</v>
@@ -25507,7 +25512,7 @@
       <c r="F9" s="15">
         <v>9</v>
       </c>
-      <c r="G9" s="118">
+      <c r="G9" s="120">
         <f>(E9/D9*0.0416666666666667)</f>
         <v>0.1606234096692112</v>
       </c>
@@ -25518,9 +25523,9 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="B10" s="117"/>
+      <c r="B10" s="119"/>
       <c r="C10" t="s" s="13">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D10" s="14">
         <v>82.5</v>
@@ -25531,7 +25536,7 @@
       <c r="F10" s="15">
         <v>10.5</v>
       </c>
-      <c r="G10" s="118">
+      <c r="G10" s="120">
         <f>(E10/D10*0.0416666666666667)</f>
         <v>0.08535353535353535</v>
       </c>
@@ -25542,7 +25547,7 @@
       <c r="I10" s="15"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="B11" s="117"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="75"/>
       <c r="D11" s="14">
         <v>48</v>
@@ -25553,7 +25558,7 @@
       <c r="F11" s="15">
         <v>8.4</v>
       </c>
-      <c r="G11" s="118">
+      <c r="G11" s="120">
         <f>(E11/D11*0.0416666666666667)</f>
         <v>0.1866319444444445</v>
       </c>
@@ -25564,7 +25569,7 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="B12" s="117"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="75"/>
       <c r="D12" s="14">
         <v>46</v>
@@ -25575,7 +25580,7 @@
       <c r="F12" s="15">
         <v>7.6</v>
       </c>
-      <c r="G12" s="118">
+      <c r="G12" s="120">
         <f>(E12/D12*0.0416666666666667)</f>
         <v>0.2173913043478261</v>
       </c>
@@ -25586,9 +25591,9 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="B13" s="117"/>
+      <c r="B13" s="119"/>
       <c r="C13" t="s" s="13">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D13" s="14">
         <v>82.2</v>
@@ -25599,7 +25604,7 @@
       <c r="F13" s="15">
         <v>10.6</v>
       </c>
-      <c r="G13" s="118">
+      <c r="G13" s="120">
         <f>(E13/D13*0.0416666666666667)</f>
         <v>0.08718572587185726</v>
       </c>
@@ -25610,7 +25615,7 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="B14" s="117"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="75"/>
       <c r="D14" s="14">
         <v>42.8</v>
@@ -25621,7 +25626,7 @@
       <c r="F14" s="15">
         <v>9.5</v>
       </c>
-      <c r="G14" s="118">
+      <c r="G14" s="120">
         <f>(E14/D14*0.0416666666666667)</f>
         <v>0.1810747663551402</v>
       </c>
@@ -25632,7 +25637,7 @@
       <c r="I14" s="15"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="B15" s="117"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="75"/>
       <c r="D15" s="14">
         <v>51.1</v>
@@ -25643,7 +25648,7 @@
       <c r="F15" s="15">
         <v>8.9</v>
       </c>
-      <c r="G15" s="118">
+      <c r="G15" s="120">
         <f>(E15/D15*0.0416666666666667)</f>
         <v>0.154924983692107</v>
       </c>
@@ -25654,7 +25659,7 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="B16" s="117"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="75"/>
       <c r="D16" s="14">
         <v>56.2</v>
@@ -25665,7 +25670,7 @@
       <c r="F16" s="15">
         <v>9.800000000000001</v>
       </c>
-      <c r="G16" s="118">
+      <c r="G16" s="120">
         <f>(E16/D16*0.0416666666666667)</f>
         <v>0.137158956109134</v>
       </c>
@@ -25677,10 +25682,10 @@
     </row>
     <row r="17" ht="20.35" customHeight="1">
       <c r="B17" t="s" s="81">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s" s="13">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D17" s="14">
         <v>77.90000000000001</v>
@@ -25691,7 +25696,7 @@
       <c r="F17" s="15">
         <v>12</v>
       </c>
-      <c r="G17" s="118">
+      <c r="G17" s="120">
         <f>(E17/D17*0.0416666666666667)</f>
         <v>0.08932391955498502</v>
       </c>
@@ -25702,9 +25707,9 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="B18" s="117"/>
+      <c r="B18" s="119"/>
       <c r="C18" t="s" s="13">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D18" s="14">
         <v>78.2</v>
@@ -25715,7 +25720,7 @@
       <c r="F18" s="15">
         <v>12.6</v>
       </c>
-      <c r="G18" s="118">
+      <c r="G18" s="120">
         <f>(E18/D18*0.0416666666666667)</f>
         <v>0.0777919863597613</v>
       </c>
@@ -25726,9 +25731,9 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="B19" s="117"/>
+      <c r="B19" s="119"/>
       <c r="C19" t="s" s="13">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D19" s="14">
         <v>78.90000000000001</v>
@@ -25739,7 +25744,7 @@
       <c r="F19" s="15">
         <v>11.4</v>
       </c>
-      <c r="G19" s="118">
+      <c r="G19" s="120">
         <f>(E19/D19*0.0416666666666667)</f>
         <v>0.0903041825095057</v>
       </c>
@@ -25750,9 +25755,9 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="B20" s="117"/>
+      <c r="B20" s="119"/>
       <c r="C20" t="s" s="13">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D20" s="14">
         <v>89.59999999999999</v>
@@ -25763,7 +25768,7 @@
       <c r="F20" s="15">
         <v>12.8</v>
       </c>
-      <c r="G20" s="118">
+      <c r="G20" s="120">
         <f>(E20/D20*0.0416666666666667)</f>
         <v>0.05952380952380953</v>
       </c>
@@ -25775,7 +25780,7 @@
     </row>
     <row r="21" ht="68.35" customHeight="1">
       <c r="B21" t="s" s="81">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="14">
@@ -25785,7 +25790,7 @@
       <c r="F21" s="15">
         <v>9.199999999999999</v>
       </c>
-      <c r="G21" s="118">
+      <c r="G21" s="120">
         <f>(E21/D21*0.0416666666666667)</f>
         <v>0</v>
       </c>
@@ -25797,7 +25802,7 @@
     </row>
     <row r="22" ht="20.35" customHeight="1">
       <c r="B22" t="s" s="81">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="14">
@@ -25807,7 +25812,7 @@
       <c r="F22" s="15">
         <v>13.5</v>
       </c>
-      <c r="G22" s="118">
+      <c r="G22" s="120">
         <f>(E22/D22*0.0416666666666667)</f>
         <v>0</v>
       </c>
@@ -25818,7 +25823,7 @@
       <c r="I22" s="15"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="B23" s="117"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="75"/>
       <c r="D23" s="14">
         <v>120</v>
@@ -25827,7 +25832,7 @@
       <c r="F23" s="15">
         <v>18.2</v>
       </c>
-      <c r="G23" s="118">
+      <c r="G23" s="120">
         <f>(E23/D23*0.0416666666666667)</f>
         <v>0</v>
       </c>
@@ -25838,7 +25843,7 @@
       <c r="I23" s="15"/>
     </row>
     <row r="24" ht="20.35" customHeight="1">
-      <c r="B24" s="117"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="75"/>
       <c r="D24" s="14">
         <v>125</v>
@@ -25847,7 +25852,7 @@
       <c r="F24" s="15">
         <v>18.7</v>
       </c>
-      <c r="G24" s="118">
+      <c r="G24" s="120">
         <f>(E24/D24*0.0416666666666667)</f>
         <v>0</v>
       </c>
@@ -25858,7 +25863,7 @@
       <c r="I24" s="15"/>
     </row>
     <row r="25" ht="20.35" customHeight="1">
-      <c r="B25" s="117"/>
+      <c r="B25" s="119"/>
       <c r="C25" s="75"/>
       <c r="D25" s="14">
         <v>130</v>
@@ -25867,7 +25872,7 @@
       <c r="F25" s="15">
         <v>19.4</v>
       </c>
-      <c r="G25" s="118">
+      <c r="G25" s="120">
         <f>(E25/D25*0.0416666666666667)</f>
         <v>0</v>
       </c>
@@ -25908,26 +25913,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="119" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="119" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="119" customWidth="1"/>
-    <col min="4" max="4" width="12.0781" style="119" customWidth="1"/>
-    <col min="5" max="5" width="11.5391" style="119" customWidth="1"/>
-    <col min="6" max="6" width="13.3281" style="119" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="119" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="119" customWidth="1"/>
-    <col min="9" max="9" width="21.5391" style="119" customWidth="1"/>
-    <col min="10" max="10" width="8.14062" style="119" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="119" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="119" customWidth="1"/>
-    <col min="13" max="13" width="8.86719" style="119" customWidth="1"/>
-    <col min="14" max="14" width="8.86719" style="119" customWidth="1"/>
-    <col min="15" max="15" width="8.86719" style="119" customWidth="1"/>
-    <col min="16" max="16" width="8.86719" style="119" customWidth="1"/>
-    <col min="17" max="17" width="8.86719" style="119" customWidth="1"/>
-    <col min="18" max="18" width="8.86719" style="119" customWidth="1"/>
-    <col min="19" max="19" width="8.86719" style="119" customWidth="1"/>
-    <col min="20" max="256" width="16.3516" style="119" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="121" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="121" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="121" customWidth="1"/>
+    <col min="4" max="4" width="12.0781" style="121" customWidth="1"/>
+    <col min="5" max="5" width="11.5391" style="121" customWidth="1"/>
+    <col min="6" max="6" width="13.3281" style="121" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="121" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="121" customWidth="1"/>
+    <col min="9" max="9" width="21.5391" style="121" customWidth="1"/>
+    <col min="10" max="10" width="8.14062" style="121" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="121" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="121" customWidth="1"/>
+    <col min="13" max="13" width="8.86719" style="121" customWidth="1"/>
+    <col min="14" max="14" width="8.86719" style="121" customWidth="1"/>
+    <col min="15" max="15" width="8.86719" style="121" customWidth="1"/>
+    <col min="16" max="16" width="8.86719" style="121" customWidth="1"/>
+    <col min="17" max="17" width="8.86719" style="121" customWidth="1"/>
+    <col min="18" max="18" width="8.86719" style="121" customWidth="1"/>
+    <col min="19" max="19" width="8.86719" style="121" customWidth="1"/>
+    <col min="20" max="256" width="16.3516" style="121" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
@@ -25975,7 +25980,7 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" s="115"/>
+      <c r="A3" s="117"/>
       <c r="B3" t="s" s="89">
         <v>10</v>
       </c>
@@ -26006,7 +26011,7 @@
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" s="75"/>
       <c r="B4" t="s" s="93">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C4" s="15">
         <v>30.1</v>
@@ -26017,7 +26022,7 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" t="s" s="16">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H4" s="15">
         <v>30</v>
@@ -26039,13 +26044,13 @@
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" s="75"/>
       <c r="B5" t="s" s="93">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C5" s="15">
         <v>70</v>
       </c>
       <c r="D5" t="s" s="16">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
@@ -26070,13 +26075,13 @@
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" s="75"/>
       <c r="B6" t="s" s="93">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C6" s="15">
         <v>0.011</v>
       </c>
       <c r="D6" t="s" s="16">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -26101,7 +26106,7 @@
     <row r="7" ht="18" customHeight="1">
       <c r="A7" s="75"/>
       <c r="B7" t="s" s="93">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C7" s="15">
         <v>0.6</v>
@@ -26130,7 +26135,7 @@
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" s="75"/>
       <c r="B8" t="s" s="93">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C8" s="15">
         <v>0.7</v>
@@ -26166,7 +26171,7 @@
       </c>
       <c r="D9" s="15"/>
       <c r="E9" t="s" s="16">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F9" s="15">
         <f>C9*C10</f>
@@ -26253,7 +26258,7 @@
     <row r="12" ht="18" customHeight="1">
       <c r="A12" s="75"/>
       <c r="B12" t="s" s="93">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C12" s="15">
         <f>C3*E3*C6</f>
@@ -26284,7 +26289,7 @@
     <row r="13" ht="32.35" customHeight="1">
       <c r="A13" s="75"/>
       <c r="B13" t="s" s="93">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C13" s="15">
         <v>0.3</v>
@@ -26296,7 +26301,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" t="s" s="16">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="I13" t="s" s="16">
         <v>57</v>
@@ -26342,7 +26347,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="16"/>
       <c r="I14" t="s" s="16">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J14" s="15">
         <v>0.015</v>
@@ -26432,7 +26437,7 @@
         <v>-10</v>
       </c>
       <c r="I16" t="s" s="16">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="J16" s="15">
         <v>1.5</v>
@@ -26475,7 +26480,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="15"/>
       <c r="I17" t="s" s="16">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="J17" s="15">
         <f>$C$13+J16</f>
@@ -26528,7 +26533,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="15"/>
       <c r="I18" t="s" s="16">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J18" s="18">
         <v>0.5</v>
@@ -26622,25 +26627,25 @@
         <v>77</v>
       </c>
       <c r="C20" t="s" s="16">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D20" t="s" s="16">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E20" t="s" s="16">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F20" t="s" s="16">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G20" t="s" s="16">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H20" t="s" s="16">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I20" t="s" s="16">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="15"/>
@@ -26657,7 +26662,7 @@
       <c r="A21" s="73">
         <v>150</v>
       </c>
-      <c r="B21" s="120">
+      <c r="B21" s="122">
         <f>A21*1000/3600</f>
         <v>41.66666666666666</v>
       </c>
@@ -26732,7 +26737,7 @@
         <f>A21-5</f>
         <v>145</v>
       </c>
-      <c r="B22" s="120">
+      <c r="B22" s="122">
         <f>A22*1000/3600</f>
         <v>40.27777777777778</v>
       </c>
@@ -26807,7 +26812,7 @@
         <f>A22-5</f>
         <v>140</v>
       </c>
-      <c r="B23" s="120">
+      <c r="B23" s="122">
         <f>A23*1000/3600</f>
         <v>38.88888888888889</v>
       </c>
@@ -26882,7 +26887,7 @@
         <f>A23-5</f>
         <v>135</v>
       </c>
-      <c r="B24" s="120">
+      <c r="B24" s="122">
         <f>A24*1000/3600</f>
         <v>37.5</v>
       </c>
@@ -26957,7 +26962,7 @@
         <f>A24-5</f>
         <v>130</v>
       </c>
-      <c r="B25" s="120">
+      <c r="B25" s="122">
         <f>A25*1000/3600</f>
         <v>36.11111111111111</v>
       </c>
@@ -27032,7 +27037,7 @@
         <f>A25-5</f>
         <v>125</v>
       </c>
-      <c r="B26" s="120">
+      <c r="B26" s="122">
         <f>A26*1000/3600</f>
         <v>34.72222222222222</v>
       </c>
@@ -27107,7 +27112,7 @@
         <f>A26-5</f>
         <v>120</v>
       </c>
-      <c r="B27" s="120">
+      <c r="B27" s="122">
         <f>A27*1000/3600</f>
         <v>33.33333333333334</v>
       </c>
@@ -27182,7 +27187,7 @@
         <f>A27-5</f>
         <v>115</v>
       </c>
-      <c r="B28" s="120">
+      <c r="B28" s="122">
         <f>A28*1000/3600</f>
         <v>31.94444444444444</v>
       </c>
@@ -27257,7 +27262,7 @@
         <f>A28-5</f>
         <v>110</v>
       </c>
-      <c r="B29" s="120">
+      <c r="B29" s="122">
         <f>A29*1000/3600</f>
         <v>30.55555555555556</v>
       </c>
@@ -27332,7 +27337,7 @@
         <f>A29-5</f>
         <v>105</v>
       </c>
-      <c r="B30" s="120">
+      <c r="B30" s="122">
         <f>A30*1000/3600</f>
         <v>29.16666666666667</v>
       </c>
@@ -27407,7 +27412,7 @@
         <f>A30-5</f>
         <v>100</v>
       </c>
-      <c r="B31" s="120">
+      <c r="B31" s="122">
         <f>A31*1000/3600</f>
         <v>27.77777777777778</v>
       </c>
@@ -27482,7 +27487,7 @@
         <f>A31-5</f>
         <v>95</v>
       </c>
-      <c r="B32" s="120">
+      <c r="B32" s="122">
         <f>A32*1000/3600</f>
         <v>26.38888888888889</v>
       </c>
@@ -27557,7 +27562,7 @@
         <f>A32-5</f>
         <v>90</v>
       </c>
-      <c r="B33" s="120">
+      <c r="B33" s="122">
         <f>A33*1000/3600</f>
         <v>25</v>
       </c>
@@ -27632,7 +27637,7 @@
         <f>A33-5</f>
         <v>85</v>
       </c>
-      <c r="B34" s="120">
+      <c r="B34" s="122">
         <f>A34*1000/3600</f>
         <v>23.61111111111111</v>
       </c>
@@ -27707,7 +27712,7 @@
         <f>A34-5</f>
         <v>80</v>
       </c>
-      <c r="B35" s="120">
+      <c r="B35" s="122">
         <f>A35*1000/3600</f>
         <v>22.22222222222222</v>
       </c>
@@ -27782,7 +27787,7 @@
         <f>A35-5</f>
         <v>75</v>
       </c>
-      <c r="B36" s="120">
+      <c r="B36" s="122">
         <f>A36*1000/3600</f>
         <v>20.83333333333333</v>
       </c>
@@ -27857,7 +27862,7 @@
         <f>A36-5</f>
         <v>70</v>
       </c>
-      <c r="B37" s="120">
+      <c r="B37" s="122">
         <f>A37*1000/3600</f>
         <v>19.44444444444444</v>
       </c>
@@ -27932,7 +27937,7 @@
         <f>A37-5</f>
         <v>65</v>
       </c>
-      <c r="B38" s="120">
+      <c r="B38" s="122">
         <f>A38*1000/3600</f>
         <v>18.05555555555556</v>
       </c>
@@ -28007,7 +28012,7 @@
         <f>A38-5</f>
         <v>60</v>
       </c>
-      <c r="B39" s="120">
+      <c r="B39" s="122">
         <f>A39*1000/3600</f>
         <v>16.66666666666667</v>
       </c>
@@ -28082,7 +28087,7 @@
         <f>A39-5</f>
         <v>55</v>
       </c>
-      <c r="B40" s="120">
+      <c r="B40" s="122">
         <f>A40*1000/3600</f>
         <v>15.27777777777778</v>
       </c>
@@ -28157,7 +28162,7 @@
         <f>A40-5</f>
         <v>50</v>
       </c>
-      <c r="B41" s="120">
+      <c r="B41" s="122">
         <f>A41*1000/3600</f>
         <v>13.88888888888889</v>
       </c>
@@ -28232,7 +28237,7 @@
         <f>A41-5</f>
         <v>45</v>
       </c>
-      <c r="B42" s="120">
+      <c r="B42" s="122">
         <f>A42*1000/3600</f>
         <v>12.5</v>
       </c>
@@ -28307,7 +28312,7 @@
         <f>A42-5</f>
         <v>40</v>
       </c>
-      <c r="B43" s="120">
+      <c r="B43" s="122">
         <f>A43*1000/3600</f>
         <v>11.11111111111111</v>
       </c>
@@ -28382,7 +28387,7 @@
         <f>A43-5</f>
         <v>35</v>
       </c>
-      <c r="B44" s="120">
+      <c r="B44" s="122">
         <f>A44*1000/3600</f>
         <v>9.722222222222221</v>
       </c>
@@ -28457,7 +28462,7 @@
         <f>A44-5</f>
         <v>30</v>
       </c>
-      <c r="B45" s="120">
+      <c r="B45" s="122">
         <f>A45*1000/3600</f>
         <v>8.333333333333334</v>
       </c>
@@ -28532,7 +28537,7 @@
         <f>A45-5</f>
         <v>25</v>
       </c>
-      <c r="B46" s="120">
+      <c r="B46" s="122">
         <f>A46*1000/3600</f>
         <v>6.944444444444445</v>
       </c>
@@ -28607,7 +28612,7 @@
         <f>A46-5</f>
         <v>20</v>
       </c>
-      <c r="B47" s="120">
+      <c r="B47" s="122">
         <f>A47*1000/3600</f>
         <v>5.555555555555555</v>
       </c>
@@ -28682,7 +28687,7 @@
         <f>A47-5</f>
         <v>15</v>
       </c>
-      <c r="B48" s="120">
+      <c r="B48" s="122">
         <f>A48*1000/3600</f>
         <v>4.166666666666667</v>
       </c>
@@ -28757,7 +28762,7 @@
         <f>A48-5</f>
         <v>10</v>
       </c>
-      <c r="B49" s="120">
+      <c r="B49" s="122">
         <f>A49*1000/3600</f>
         <v>2.777777777777778</v>
       </c>
@@ -28832,7 +28837,7 @@
         <f>A49-5</f>
         <v>5</v>
       </c>
-      <c r="B50" s="120">
+      <c r="B50" s="122">
         <f>A50*1000/3600</f>
         <v>1.388888888888889</v>
       </c>
